--- a/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
+++ b/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76A0806-10EC-4041-ACA7-3ED85B8CC00F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D91454-BA99-4E62-9BD5-B4F96DC3F735}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="59" r:id="rId1"/>
@@ -67,7 +67,8 @@
     <sheet name="Monitoring" sheetId="5" r:id="rId52"/>
     <sheet name="Closing" sheetId="6" r:id="rId53"/>
     <sheet name="Mock" sheetId="8" r:id="rId54"/>
-    <sheet name="Full Test 4" sheetId="9" r:id="rId55"/>
+    <sheet name="Full test 1" sheetId="61" r:id="rId55"/>
+    <sheet name="Full Test 4" sheetId="9" r:id="rId56"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1208">
   <si>
     <t>No</t>
   </si>
@@ -3707,12 +3708,221 @@
   <si>
     <t>Việc dành nhiều money and managing resource nên đang ở execution phase of the project. Hence stakeholder influence is now less than in previous phase</t>
   </si>
+  <si>
+    <t>Thằng PM có nhiều quyền không chỉ . Identify, monitor, and respond to risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Choice 3. Carry out performance appraisal of project team: thực hiện đánh giá hiệu suất của nhóm dự án thì trong function tổ chức PM k có quyền đó</t>
+  </si>
+  <si>
+    <t>Hỏi thầy</t>
+  </si>
+  <si>
+    <t>việc make -or buy analysis thì vẫn phải tuân theo core business của tổ chức</t>
+  </si>
+  <si>
+    <t>Xem lý thuyết của wbs diction: description of work, responsible organization, and schedule milestones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sắp xong dự án thì các team member thay vì làm nhiệm vụ của họ thì tìm một vị trí mới đấy là safety </t>
+  </si>
+  <si>
+    <t>trc đây làm cho cty A, giờ chuyển sang làm cho công ty đối thủ thì vẫn You can use the knowledge gained in the first company to improve your present company`s product quality</t>
+  </si>
+  <si>
+    <t>you had not anticipated earlier. Key word: do chưa xác định được nên cần phải tiến hành analysis, Perform updated risk identification and analysis</t>
+  </si>
+  <si>
+    <t>you wish to manage procurement relationships, monitor contract performance, and make changes and corrections as needed =&gt; là nằm trong process control procurment và cần xác định input/output của process này là gì</t>
+  </si>
+  <si>
+    <t>Trong control procurment thì  Project schedule không là input</t>
+  </si>
+  <si>
+    <t>Xem xét crashing cần đánh giá cả tổng time saving và cost crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collect work performance là một phần trong direct and manage </t>
+  </si>
+  <si>
+    <t>Thuyết X là nói về vấn đề: To get the work done, the supervisor threatens punishment and strictly supervises the work</t>
+  </si>
+  <si>
+    <t>MỤc tiêu của dự án không phải là mục tiêu của dự án trước đấy được with the goals of previous projects</t>
+  </si>
+  <si>
+    <t>you are currently involved in monitoring stakeholder relationships and adjusting plans for their engagement thì là control process stakeholder</t>
+  </si>
+  <si>
+    <t>Cần phải relax</t>
+  </si>
+  <si>
+    <t>Control chart mới có set limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> you have documents to highlight project status, lessons learned, issue logs, and outputs from other knowledge areas =&gt; document inlcude trong Project communications</t>
+  </si>
+  <si>
+    <t>which of the following is NOT the responsibility of both the project sponsor and the customer không liên quan tới Provide financial resources for the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hybrid type of contractual arrangement là hợp đồng time and material contracts</t>
+  </si>
+  <si>
+    <t>pre-defined budget là constraint</t>
+  </si>
+  <si>
+    <t>When does the project manager review prior phase documentation and customer acceptance documentation from the Validate Scope process? =&gt; Close Project or Phase</t>
+  </si>
+  <si>
+    <t>Management Style: directing: cầm tay chỉ việc
+Coaching: huấn luyện
+Supporting: hỗ trợ
+Delegating: ủy quyền, trao quyền
+Cần phải hiểu: tell them when and how the tasks should be completed là direct</t>
+  </si>
+  <si>
+    <t>Sau khi ranking ra rồi, phân loại ra rồi lại tiếp tục đưa ra để phân tích sâu thêm: Analyze the effect of identified risks on overall project objectives</t>
+  </si>
+  <si>
+    <t>Mean  = (P+O + 4M)/6; six sigma = Mean +-6 = 13-6*1=7 và 13 + 6*1 = 19</t>
+  </si>
+  <si>
+    <t>Lesson learn: At the end of a project or phase, the information is transferred to an organizational process asset called a Lessons learned repository.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Update Organizational Process Assets là throuough project còn  Update Organizational Process Assets là Create project closure documents</t>
+  </si>
+  <si>
+    <t>Stakeholder analysis is used to systematically gather and analyze quantitative and qualitative information on stakeholders' level of interest in the project. In this technique: =&gt; Stakeholders are identified based on degree of interest</t>
+  </si>
+  <si>
+    <t>Warranty costs là chi phí phát sinh bên ngoài nên not incurred toward ensuring compliance to requirements?</t>
+  </si>
+  <si>
+    <t>Vấn đề đang nói you are in the process of determining the project roles, responsibilities, and reporting relationships for your team members là nằm trong process resource management plan còn Project team assignments output của acquairesource</t>
+  </si>
+  <si>
+    <t>cope statement provides  Common understanding of the project scope among project stakeholders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  following statements on quality planning </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team members are scared and disappointed as they learn they will be out of a project =&gt; ủy quyền cho HR</t>
+  </si>
+  <si>
+    <t>team use these scripts to test the modules and in what process would the test scripts be audited to ensure they are valid =&gt; Control Quality, Manage Quality</t>
+  </si>
+  <si>
+    <t>Quản lý kỳ vọng của stakeholder là PM</t>
+  </si>
+  <si>
+    <t>Using the DfX may result in mục đích là để giảm chi phí reduce cost chứ không phải quality</t>
+  </si>
+  <si>
+    <t>Chane control tool trong Perform Integrated Change Control process bao gồm: configuration identification, status accounting, verification and audit</t>
+  </si>
+  <si>
+    <t>Không hiểu hỏi thầy</t>
+  </si>
+  <si>
+    <t>In the last project status meeting, a team member criticized some of his teammates and undermined the status of work done by them. The role that was played by the person was that of: Aggressor</t>
+  </si>
+  <si>
+    <t>Đọc lại mục này</t>
+  </si>
+  <si>
+    <t>MOST LIKELY reason for the variances in the project schedule and budget? Là Assumptions used in the planning processes were not valid</t>
+  </si>
+  <si>
+    <t>Đọc kỹ câu hỏi, nếu task A,B,C là critical thì mới xác định dc critical path</t>
+  </si>
+  <si>
+    <t>Cần hiểu câu hỏi là khi mà đang làm với tài liệu nào, planning stakeholder thì cần phải follow tài liệu nào từ process  Identify Stakeholders</t>
+  </si>
+  <si>
+    <t>Khi tạo managemeng sig zigma -&gt; cost management plan for your Six-Sigma project =&gt;Uses preferred tools for cost estimating</t>
+  </si>
+  <si>
+    <t>determining the project roles, responsibilities and reporting relationships for your team members nằm trong plan resource management</t>
+  </si>
+  <si>
+    <t>Audit chỉ trong manage quality</t>
+  </si>
+  <si>
+    <t>, these guidelines and policies will be classified là constraints</t>
+  </si>
+  <si>
+    <t>Identify Stakeholders is the process of identifying all people or organizations impacted by the project and to document: Stakeholder interests, involvement, and impact on project success</t>
+  </si>
+  <si>
+    <t>Which of the following exhibits greatest resistance to change =&gt; people</t>
+  </si>
+  <si>
+    <t>The closure of a phase is required to be approved in some form before it can be considered closed. Là characteristic of a project phase. Vì các quy trình của dự án có thể gộp lại với nhau</t>
+  </si>
+  <si>
+    <t>Develop Schedule process sử dụng tool technique là simulation</t>
+  </si>
+  <si>
+    <t>The activity list should include descriptions of activities. Activity liên quan tới team member Ensure that the team members understand what work is to be completed</t>
+  </si>
+  <si>
+    <t>EMV = total probbility * total impact cái nào lớn thì concern lớn nhất</t>
+  </si>
+  <si>
+    <t>output của Plan Scope Management process là Scope management plan and Requirements management plan</t>
+  </si>
+  <si>
+    <t>Control Quality is the process of monitoring and recording results of executing the quality activities: Sampling and probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data analysis techniques trong Plan Cost Management process  Reviewing strategic funding such as: self-funding, funding with equity, or funding with debt </t>
+  </si>
+  <si>
+    <t>Các bài dưới 60%</t>
+  </si>
+  <si>
+    <t>Trạng thái review</t>
+  </si>
+  <si>
+    <t>Planning 6</t>
+  </si>
+  <si>
+    <t>Monitoring 1</t>
+  </si>
+  <si>
+    <t>Monitoring 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Monitoring 5</t>
+  </si>
+  <si>
+    <t>Executing 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mock Exam 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mock Exam 17</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Procurement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3857,8 +4067,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3934,6 +4150,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4287,7 +4515,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4575,6 +4803,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="17" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4597,21 +4840,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="17" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4629,86 +4868,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Callout: Line with Border and Accent Bar 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B5370C-BB2A-469E-BB6A-648ED9D610B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10496550" y="4772024"/>
-          <a:ext cx="2924175" cy="962026"/>
-        </a:xfrm>
-        <a:prstGeom prst="accentBorderCallout1">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Cần</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> dừng lại để review trong tuần này bao gồm:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>+ Kiến thức + các bài tập</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5013,8 +5172,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="E23" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -5022,7 +5181,9 @@
     <col min="1" max="1" width="26.28515625" style="101" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.42578125" style="101"/>
     <col min="6" max="9" width="14.42578125" style="47"/>
-    <col min="10" max="16384" width="14.42578125" style="101"/>
+    <col min="10" max="10" width="30.140625" style="101" customWidth="1"/>
+    <col min="11" max="11" width="20" style="101" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
@@ -5053,8 +5214,12 @@
       <c r="I1" s="50" t="s">
         <v>540</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="J1" s="47" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>1198</v>
+      </c>
       <c r="L1" s="47"/>
       <c r="M1" s="47"/>
       <c r="N1" s="47"/>
@@ -5092,7 +5257,9 @@
       <c r="I2" s="50" t="s">
         <v>540</v>
       </c>
-      <c r="J2" s="47"/>
+      <c r="J2" s="47" t="s">
+        <v>489</v>
+      </c>
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
@@ -5131,7 +5298,9 @@
       <c r="I3" s="50" t="s">
         <v>540</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="47" t="s">
+        <v>488</v>
+      </c>
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -5170,7 +5339,9 @@
       <c r="I4" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="47" t="s">
+        <v>486</v>
+      </c>
       <c r="K4" s="47"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -5209,7 +5380,9 @@
       <c r="I5" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J5" s="47"/>
+      <c r="J5" s="47" t="s">
+        <v>484</v>
+      </c>
       <c r="K5" s="47"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -5254,7 +5427,9 @@
       <c r="I6" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J6" s="47"/>
+      <c r="J6" s="116" t="s">
+        <v>1199</v>
+      </c>
       <c r="K6" s="47"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -5293,7 +5468,9 @@
       <c r="I7" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J7" s="47"/>
+      <c r="J7" s="47" t="s">
+        <v>1200</v>
+      </c>
       <c r="K7" s="47"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -5338,7 +5515,9 @@
       <c r="I8" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="47" t="s">
+        <v>482</v>
+      </c>
       <c r="K8" s="47"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -5383,7 +5562,9 @@
       <c r="I9" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="47" t="s">
+        <v>481</v>
+      </c>
       <c r="K9" s="47"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
@@ -5428,7 +5609,9 @@
       <c r="I10" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="47" t="s">
+        <v>1201</v>
+      </c>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
@@ -5447,7 +5630,7 @@
       <c r="Z10" s="47"/>
       <c r="AA10" s="47"/>
     </row>
-    <row r="11" spans="1:27" ht="15">
+    <row r="11" spans="1:27" ht="25.5">
       <c r="A11" s="61" t="s">
         <v>352</v>
       </c>
@@ -5473,7 +5656,9 @@
       <c r="I11" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="120" t="s">
+        <v>1202</v>
+      </c>
       <c r="K11" s="47"/>
       <c r="L11" s="47"/>
       <c r="M11" s="47"/>
@@ -5516,7 +5701,9 @@
         <v>386</v>
       </c>
       <c r="I12" s="50"/>
-      <c r="J12" s="47"/>
+      <c r="J12" s="121" t="s">
+        <v>480</v>
+      </c>
       <c r="K12" s="47"/>
       <c r="L12" s="47"/>
       <c r="M12" s="47"/>
@@ -5560,7 +5747,9 @@
       <c r="I13" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J13" s="47"/>
+      <c r="J13" s="121" t="s">
+        <v>478</v>
+      </c>
       <c r="K13" s="47"/>
       <c r="L13" s="47"/>
       <c r="M13" s="47"/>
@@ -5604,7 +5793,9 @@
       <c r="I14" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="121" t="s">
+        <v>477</v>
+      </c>
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
       <c r="M14" s="47"/>
@@ -5627,10 +5818,10 @@
       <c r="A15" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="108">
         <v>43473</v>
       </c>
-      <c r="C15" s="103" t="str">
+      <c r="C15" s="108" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -5648,7 +5839,9 @@
       <c r="I15" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J15" s="47"/>
+      <c r="J15" s="121" t="s">
+        <v>475</v>
+      </c>
       <c r="K15" s="47"/>
       <c r="L15" s="47"/>
       <c r="M15" s="47"/>
@@ -5671,8 +5864,8 @@
       <c r="A16" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5687,7 +5880,9 @@
       <c r="I16" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J16" s="47"/>
+      <c r="J16" s="121" t="s">
+        <v>474</v>
+      </c>
       <c r="K16" s="47"/>
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
@@ -5710,8 +5905,8 @@
       <c r="A17" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5726,7 +5921,9 @@
       <c r="I17" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="121" t="s">
+        <v>473</v>
+      </c>
       <c r="K17" s="47"/>
       <c r="L17" s="47"/>
       <c r="M17" s="47"/>
@@ -5770,7 +5967,9 @@
       <c r="I18" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J18" s="47"/>
+      <c r="J18" s="121" t="s">
+        <v>472</v>
+      </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
       <c r="M18" s="47"/>
@@ -5812,7 +6011,9 @@
       <c r="I19" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="J19" s="47"/>
+      <c r="J19" s="121" t="s">
+        <v>1203</v>
+      </c>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
       <c r="M19" s="47"/>
@@ -5835,11 +6036,11 @@
       <c r="A20" s="62" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="103">
+      <c r="B20" s="108">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="103" t="str">
+      <c r="C20" s="108" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -5857,7 +6058,9 @@
       <c r="I20" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="121" t="s">
+        <v>471</v>
+      </c>
       <c r="K20" s="47"/>
       <c r="L20" s="47"/>
       <c r="M20" s="47"/>
@@ -5880,8 +6083,8 @@
       <c r="A21" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5896,7 +6099,9 @@
       <c r="I21" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J21" s="47"/>
+      <c r="J21" s="117" t="s">
+        <v>369</v>
+      </c>
       <c r="K21" s="47"/>
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
@@ -5919,8 +6124,8 @@
       <c r="A22" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5935,7 +6140,9 @@
       <c r="I22" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J22" s="47"/>
+      <c r="J22" s="117" t="s">
+        <v>370</v>
+      </c>
       <c r="K22" s="47"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
@@ -5980,7 +6187,9 @@
       <c r="I23" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J23" s="47"/>
+      <c r="J23" s="117" t="s">
+        <v>371</v>
+      </c>
       <c r="K23" s="47"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
@@ -6023,7 +6232,9 @@
       <c r="I24" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="J24" s="47"/>
+      <c r="J24" s="117" t="s">
+        <v>372</v>
+      </c>
       <c r="K24" s="47"/>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
@@ -6042,7 +6253,7 @@
       <c r="Z24" s="47"/>
       <c r="AA24" s="47"/>
     </row>
-    <row r="25" spans="1:27" ht="15">
+    <row r="25" spans="1:27" ht="26.25">
       <c r="A25" s="62" t="s">
         <v>371</v>
       </c>
@@ -6068,7 +6279,9 @@
       <c r="I25" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J25" s="47"/>
+      <c r="J25" s="118" t="s">
+        <v>1204</v>
+      </c>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
       <c r="M25" s="47"/>
@@ -6105,7 +6318,7 @@
       <c r="I26" s="71" t="s">
         <v>856</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="117"/>
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
       <c r="M26" s="47"/>
@@ -6124,7 +6337,7 @@
       <c r="Z26" s="47"/>
       <c r="AA26" s="47"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" thickBot="1">
+    <row r="27" spans="1:27" ht="27" thickBot="1">
       <c r="A27" s="62" t="s">
         <v>362</v>
       </c>
@@ -6144,7 +6357,9 @@
       <c r="I27" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J27" s="47"/>
+      <c r="J27" s="118" t="s">
+        <v>1205</v>
+      </c>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
       <c r="M27" s="47"/>
@@ -6188,7 +6403,9 @@
       <c r="I28" s="78" t="s">
         <v>545</v>
       </c>
-      <c r="J28" s="47"/>
+      <c r="J28" s="117" t="s">
+        <v>386</v>
+      </c>
       <c r="K28" s="47"/>
       <c r="L28" s="47"/>
       <c r="M28" s="47"/>
@@ -6226,7 +6443,9 @@
       <c r="G29" s="83"/>
       <c r="H29" s="83"/>
       <c r="I29" s="84"/>
-      <c r="J29" s="47"/>
+      <c r="J29" s="117" t="s">
+        <v>1206</v>
+      </c>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
       <c r="M29" s="47"/>
@@ -6270,7 +6489,9 @@
       <c r="I30" s="84" t="s">
         <v>545</v>
       </c>
-      <c r="J30" s="47"/>
+      <c r="J30" s="122" t="s">
+        <v>463</v>
+      </c>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
       <c r="M30" s="47"/>
@@ -6315,7 +6536,9 @@
       <c r="I31" s="84" t="s">
         <v>545</v>
       </c>
-      <c r="J31" s="47"/>
+      <c r="J31" s="119" t="s">
+        <v>1207</v>
+      </c>
       <c r="K31" s="47"/>
       <c r="L31" s="47"/>
       <c r="M31" s="47"/>
@@ -6419,21 +6642,21 @@
       <c r="AA33" s="47"/>
     </row>
     <row r="34" spans="1:27" ht="15">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="B34" s="112">
+      <c r="B34" s="104">
         <f>B28 + 10</f>
         <v>43509</v>
       </c>
-      <c r="C34" s="112" t="str">
+      <c r="C34" s="104" t="str">
         <f>IF(WEEKDAY(B34,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B34,1))</f>
         <v>Thứ 4</v>
       </c>
-      <c r="D34" s="113">
+      <c r="D34" s="105">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E34" s="114"/>
+      <c r="E34" s="106"/>
       <c r="F34" s="83" t="s">
         <v>573</v>
       </c>
@@ -6675,21 +6898,21 @@
       <c r="AA39" s="47"/>
     </row>
     <row r="40" spans="1:27" ht="15">
-      <c r="A40" s="111" t="s">
+      <c r="A40" s="103" t="s">
         <v>401</v>
       </c>
-      <c r="B40" s="112">
+      <c r="B40" s="104">
         <f t="shared" si="6"/>
         <v>43511</v>
       </c>
-      <c r="C40" s="112" t="str">
+      <c r="C40" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D40" s="113">
+      <c r="D40" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E40" s="114"/>
+      <c r="E40" s="106"/>
       <c r="F40" s="83" t="s">
         <v>573</v>
       </c>
@@ -6720,21 +6943,21 @@
       <c r="AA40" s="47"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="103" t="s">
         <v>402</v>
       </c>
-      <c r="B41" s="112">
+      <c r="B41" s="104">
         <f t="shared" si="6"/>
         <v>43511</v>
       </c>
-      <c r="C41" s="112" t="str">
+      <c r="C41" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D41" s="113">
+      <c r="D41" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E41" s="114"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="83" t="s">
         <v>573</v>
       </c>
@@ -6849,21 +7072,21 @@
       <c r="AA43" s="47"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="103" t="s">
         <v>365</v>
       </c>
-      <c r="B44" s="112">
+      <c r="B44" s="104">
         <f>B37+ 2</f>
         <v>43512</v>
       </c>
-      <c r="C44" s="112" t="str">
+      <c r="C44" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D44" s="113">
+      <c r="D44" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E44" s="114"/>
+      <c r="E44" s="106"/>
       <c r="F44" s="83" t="s">
         <v>573</v>
       </c>
@@ -6978,21 +7201,21 @@
       <c r="AA46" s="47"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A47" s="111" t="s">
+      <c r="A47" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="B47" s="115">
+      <c r="B47" s="107">
         <f>B45+1</f>
         <v>43513</v>
       </c>
-      <c r="C47" s="112" t="str">
+      <c r="C47" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D47" s="113">
+      <c r="D47" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E47" s="114"/>
+      <c r="E47" s="106"/>
       <c r="F47" s="83" t="s">
         <v>573</v>
       </c>
@@ -7058,21 +7281,21 @@
       <c r="AA48" s="47"/>
     </row>
     <row r="49" spans="1:27" ht="15">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="103" t="s">
         <v>404</v>
       </c>
-      <c r="B49" s="112">
+      <c r="B49" s="104">
         <f>B43 + 2</f>
         <v>43514</v>
       </c>
-      <c r="C49" s="112" t="str">
+      <c r="C49" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D49" s="113">
+      <c r="D49" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E49" s="114"/>
+      <c r="E49" s="106"/>
       <c r="F49" s="83" t="s">
         <v>573</v>
       </c>
@@ -7181,21 +7404,21 @@
       <c r="AA51" s="47"/>
     </row>
     <row r="52" spans="1:27" ht="15">
-      <c r="A52" s="111" t="s">
+      <c r="A52" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="B52" s="115">
+      <c r="B52" s="107">
         <f>B43+3</f>
         <v>43515</v>
       </c>
-      <c r="C52" s="112" t="str">
+      <c r="C52" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D52" s="113">
+      <c r="D52" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E52" s="114"/>
+      <c r="E52" s="106"/>
       <c r="F52" s="83" t="s">
         <v>1065</v>
       </c>
@@ -7423,21 +7646,21 @@
       <c r="AA57" s="47"/>
     </row>
     <row r="58" spans="1:27" ht="15">
-      <c r="A58" s="111" t="s">
+      <c r="A58" s="103" t="s">
         <v>375</v>
       </c>
-      <c r="B58" s="112">
+      <c r="B58" s="104">
         <f t="shared" si="7"/>
         <v>43517</v>
       </c>
-      <c r="C58" s="112" t="str">
+      <c r="C58" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 5</v>
       </c>
-      <c r="D58" s="113">
+      <c r="D58" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E58" s="114"/>
+      <c r="E58" s="106"/>
       <c r="F58" s="83"/>
       <c r="G58" s="83"/>
       <c r="H58" s="83"/>
@@ -7462,21 +7685,21 @@
       <c r="AA58" s="47"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="B59" s="112">
+      <c r="B59" s="104">
         <f t="shared" si="7"/>
         <v>43517</v>
       </c>
-      <c r="C59" s="112" t="str">
+      <c r="C59" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 5</v>
       </c>
-      <c r="D59" s="113">
+      <c r="D59" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E59" s="114"/>
+      <c r="E59" s="106"/>
       <c r="F59" s="83"/>
       <c r="G59" s="83"/>
       <c r="H59" s="83"/>
@@ -7540,21 +7763,21 @@
       <c r="AA60" s="47"/>
     </row>
     <row r="61" spans="1:27" ht="15">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="103" t="s">
         <v>377</v>
       </c>
-      <c r="B61" s="112">
+      <c r="B61" s="104">
         <f>B59 + 1</f>
         <v>43518</v>
       </c>
-      <c r="C61" s="112" t="str">
+      <c r="C61" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D61" s="113">
+      <c r="D61" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E61" s="114"/>
+      <c r="E61" s="106"/>
       <c r="F61" s="83"/>
       <c r="G61" s="83"/>
       <c r="H61" s="83"/>
@@ -7579,21 +7802,21 @@
       <c r="AA61" s="47"/>
     </row>
     <row r="62" spans="1:27" ht="15">
-      <c r="A62" s="111" t="s">
+      <c r="A62" s="103" t="s">
         <v>407</v>
       </c>
-      <c r="B62" s="112">
+      <c r="B62" s="104">
         <f>B59 + 1</f>
         <v>43518</v>
       </c>
-      <c r="C62" s="112" t="str">
+      <c r="C62" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D62" s="113">
+      <c r="D62" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E62" s="114"/>
+      <c r="E62" s="106"/>
       <c r="F62" s="83"/>
       <c r="G62" s="83"/>
       <c r="H62" s="83"/>
@@ -7618,21 +7841,21 @@
       <c r="AA62" s="47"/>
     </row>
     <row r="63" spans="1:27" ht="15">
-      <c r="A63" s="111" t="s">
+      <c r="A63" s="103" t="s">
         <v>408</v>
       </c>
-      <c r="B63" s="112">
+      <c r="B63" s="104">
         <f>B59 +1</f>
         <v>43518</v>
       </c>
-      <c r="C63" s="112" t="str">
+      <c r="C63" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D63" s="113">
+      <c r="D63" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E63" s="114"/>
+      <c r="E63" s="106"/>
       <c r="F63" s="83"/>
       <c r="G63" s="83"/>
       <c r="H63" s="83"/>
@@ -7698,21 +7921,21 @@
       <c r="AA64" s="47"/>
     </row>
     <row r="65" spans="1:27" ht="15">
-      <c r="A65" s="111" t="s">
+      <c r="A65" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="B65" s="112">
+      <c r="B65" s="104">
         <f>B61 + 1</f>
         <v>43519</v>
       </c>
-      <c r="C65" s="112" t="str">
+      <c r="C65" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D65" s="113">
+      <c r="D65" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E65" s="114"/>
+      <c r="E65" s="106"/>
       <c r="F65" s="83"/>
       <c r="G65" s="83"/>
       <c r="H65" s="83"/>
@@ -7737,21 +7960,21 @@
       <c r="AA65" s="47"/>
     </row>
     <row r="66" spans="1:27" ht="15">
-      <c r="A66" s="111" t="s">
+      <c r="A66" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="B66" s="112">
+      <c r="B66" s="104">
         <f>B61 +1</f>
         <v>43519</v>
       </c>
-      <c r="C66" s="112" t="str">
+      <c r="C66" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D66" s="113">
+      <c r="D66" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E66" s="114"/>
+      <c r="E66" s="106"/>
       <c r="F66" s="83"/>
       <c r="G66" s="83"/>
       <c r="H66" s="83"/>
@@ -7776,21 +7999,21 @@
       <c r="AA66" s="47"/>
     </row>
     <row r="67" spans="1:27" ht="15">
-      <c r="A67" s="111" t="s">
+      <c r="A67" s="103" t="s">
         <v>409</v>
       </c>
-      <c r="B67" s="112">
+      <c r="B67" s="104">
         <f t="shared" ref="B67:B73" si="8">B63 + 2</f>
         <v>43520</v>
       </c>
-      <c r="C67" s="112" t="str">
+      <c r="C67" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D67" s="113">
+      <c r="D67" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E67" s="114"/>
+      <c r="E67" s="106"/>
       <c r="F67" s="83"/>
       <c r="G67" s="83"/>
       <c r="H67" s="83"/>
@@ -7856,21 +8079,21 @@
       <c r="AA68" s="47"/>
     </row>
     <row r="69" spans="1:27" ht="15">
-      <c r="A69" s="111" t="s">
+      <c r="A69" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="B69" s="112">
+      <c r="B69" s="104">
         <f>B65 + 1</f>
         <v>43520</v>
       </c>
-      <c r="C69" s="112" t="str">
+      <c r="C69" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D69" s="113">
+      <c r="D69" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E69" s="114"/>
+      <c r="E69" s="106"/>
       <c r="F69" s="83"/>
       <c r="G69" s="83"/>
       <c r="H69" s="83"/>
@@ -7895,21 +8118,21 @@
       <c r="AA69" s="47"/>
     </row>
     <row r="70" spans="1:27" ht="15">
-      <c r="A70" s="111" t="s">
+      <c r="A70" s="103" t="s">
         <v>382</v>
       </c>
-      <c r="B70" s="112">
+      <c r="B70" s="104">
         <f t="shared" si="8"/>
         <v>43521</v>
       </c>
-      <c r="C70" s="112" t="str">
+      <c r="C70" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D70" s="113">
+      <c r="D70" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E70" s="114"/>
+      <c r="E70" s="106"/>
       <c r="F70" s="83"/>
       <c r="G70" s="83"/>
       <c r="H70" s="83"/>
@@ -7934,21 +8157,21 @@
       <c r="AA70" s="47"/>
     </row>
     <row r="71" spans="1:27" ht="15">
-      <c r="A71" s="111" t="s">
+      <c r="A71" s="103" t="s">
         <v>383</v>
       </c>
-      <c r="B71" s="112">
+      <c r="B71" s="104">
         <f>B67 + 1</f>
         <v>43521</v>
       </c>
-      <c r="C71" s="112" t="str">
+      <c r="C71" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D71" s="113">
+      <c r="D71" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E71" s="114"/>
+      <c r="E71" s="106"/>
       <c r="F71" s="83"/>
       <c r="G71" s="83"/>
       <c r="H71" s="83"/>
@@ -7973,21 +8196,21 @@
       <c r="AA71" s="47"/>
     </row>
     <row r="72" spans="1:27" ht="15">
-      <c r="A72" s="111" t="s">
+      <c r="A72" s="103" t="s">
         <v>410</v>
       </c>
-      <c r="B72" s="112">
+      <c r="B72" s="104">
         <f>B68 + 1</f>
         <v>43521</v>
       </c>
-      <c r="C72" s="112" t="str">
+      <c r="C72" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D72" s="113">
+      <c r="D72" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E72" s="114"/>
+      <c r="E72" s="106"/>
       <c r="F72" s="83"/>
       <c r="G72" s="83"/>
       <c r="H72" s="83"/>
@@ -8012,21 +8235,21 @@
       <c r="AA72" s="47"/>
     </row>
     <row r="73" spans="1:27" ht="15">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="103" t="s">
         <v>411</v>
       </c>
-      <c r="B73" s="112">
+      <c r="B73" s="104">
         <f t="shared" si="8"/>
         <v>43522</v>
       </c>
-      <c r="C73" s="112" t="str">
+      <c r="C73" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D73" s="113">
+      <c r="D73" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E73" s="114"/>
+      <c r="E73" s="106"/>
       <c r="F73" s="83"/>
       <c r="G73" s="83"/>
       <c r="H73" s="83"/>
@@ -8051,21 +8274,21 @@
       <c r="AA73" s="47"/>
     </row>
     <row r="74" spans="1:27" ht="15">
-      <c r="A74" s="111" t="s">
+      <c r="A74" s="103" t="s">
         <v>384</v>
       </c>
-      <c r="B74" s="112">
+      <c r="B74" s="104">
         <f>B70 + 1</f>
         <v>43522</v>
       </c>
-      <c r="C74" s="112" t="str">
+      <c r="C74" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D74" s="113">
+      <c r="D74" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E74" s="114"/>
+      <c r="E74" s="106"/>
       <c r="F74" s="83"/>
       <c r="G74" s="83"/>
       <c r="H74" s="83"/>
@@ -8090,21 +8313,21 @@
       <c r="AA74" s="47"/>
     </row>
     <row r="75" spans="1:27" ht="15">
-      <c r="A75" s="111" t="s">
+      <c r="A75" s="103" t="s">
         <v>385</v>
       </c>
-      <c r="B75" s="112">
+      <c r="B75" s="104">
         <f>B71 + 1</f>
         <v>43522</v>
       </c>
-      <c r="C75" s="112" t="str">
+      <c r="C75" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D75" s="113">
+      <c r="D75" s="105">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E75" s="114"/>
+      <c r="E75" s="106"/>
       <c r="F75" s="83"/>
       <c r="G75" s="83"/>
       <c r="H75" s="83"/>
@@ -8129,7 +8352,7 @@
       <c r="AA75" s="47"/>
     </row>
     <row r="76" spans="1:27" ht="15">
-      <c r="A76" s="79" t="s">
+      <c r="A76" s="98" t="s">
         <v>386</v>
       </c>
       <c r="B76" s="80">
@@ -8170,7 +8393,7 @@
       <c r="AA76" s="47"/>
     </row>
     <row r="77" spans="1:27" ht="15">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="98" t="s">
         <v>387</v>
       </c>
       <c r="B77" s="80">
@@ -8211,21 +8434,21 @@
       <c r="AA77" s="47"/>
     </row>
     <row r="78" spans="1:27" ht="15">
-      <c r="A78" s="111" t="s">
+      <c r="A78" s="103" t="s">
         <v>388</v>
       </c>
-      <c r="B78" s="112">
+      <c r="B78" s="104">
         <f>B73 + 3</f>
         <v>43525</v>
       </c>
-      <c r="C78" s="112" t="str">
+      <c r="C78" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D78" s="113">
+      <c r="D78" s="105">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E78" s="114"/>
+      <c r="E78" s="106"/>
       <c r="F78" s="83"/>
       <c r="G78" s="83"/>
       <c r="H78" s="83"/>
@@ -8250,21 +8473,21 @@
       <c r="AA78" s="47"/>
     </row>
     <row r="79" spans="1:27" ht="15">
-      <c r="A79" s="111" t="s">
+      <c r="A79" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="B79" s="112">
+      <c r="B79" s="104">
         <f>B75 + 4</f>
         <v>43526</v>
       </c>
-      <c r="C79" s="112" t="str">
+      <c r="C79" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D79" s="113">
+      <c r="D79" s="105">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E79" s="114"/>
+      <c r="E79" s="106"/>
       <c r="F79" s="83"/>
       <c r="G79" s="83"/>
       <c r="H79" s="83"/>
@@ -31816,11 +32039,14 @@
     <hyperlink ref="A50" location="'Mock Exam 6'!A1" display="Mock Exam 6" xr:uid="{21129F36-5031-4CB2-B056-ED699CEDB28A}"/>
     <hyperlink ref="H46" location="'Initiating 1'!A1" display="Initiating 1" xr:uid="{867C4E7E-1E58-4BC8-BBC0-805FB2FC6C0D}"/>
     <hyperlink ref="H32" location="'Monitoring 11'!A1" display="Monitoring 11" xr:uid="{4C83CE24-4F77-408F-8C88-192BFFAE7BA9}"/>
+    <hyperlink ref="A77" location="'Full test 1'!A1" display="Full Test 1" xr:uid="{4523928A-4B63-4171-8AC8-43FCA3957AD0}"/>
+    <hyperlink ref="A76" location="'Mock Exam 18'!A1" display="Mock Exam 18" xr:uid="{AAAD6C9F-C7E5-4721-A8F7-BCDBDC617092}"/>
+    <hyperlink ref="J31" location="Procurement!A1" display="Procurement" xr:uid="{B582D725-D656-4BC8-BC38-EE165D67735C}"/>
+    <hyperlink ref="J30" location="Resource!A1" display="Resource" xr:uid="{1558CF88-E21B-447A-9F90-5E20C72FCB65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -32134,8 +32360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32189,7 +32415,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -32198,11 +32424,11 @@
         <v>4</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -32211,7 +32437,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>550</v>
       </c>
     </row>
@@ -36214,8 +36440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB276F1D-E283-4EC7-864D-9C4AF9A2426A}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41555,8 +41781,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50032,152 +50258,152 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="110" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="107"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="110"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -50210,222 +50436,222 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="107"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="112"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="112"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="107"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="112"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="107"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -50462,120 +50688,120 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="110" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="107"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -50607,120 +50833,120 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="107"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -51417,135 +51643,135 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="110" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="107"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -51893,6 +52119,1677 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F383373-F0A3-479D-A7AB-FEC4B3E1DC8F}">
+  <dimension ref="A1:G201"/>
+  <sheetViews>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="15" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="45">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="60">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="60">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="75">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" ht="30">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" ht="45">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="C78" s="8"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="C79" s="8"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="8">
+        <v>87</v>
+      </c>
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="8">
+        <v>88</v>
+      </c>
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="8">
+        <v>89</v>
+      </c>
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="8">
+        <v>90</v>
+      </c>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="8">
+        <v>91</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="8">
+        <v>93</v>
+      </c>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" ht="90">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="65" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="8">
+        <v>97</v>
+      </c>
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="8">
+        <v>98</v>
+      </c>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="8">
+        <v>99</v>
+      </c>
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="8">
+        <v>100</v>
+      </c>
+      <c r="C101" s="8"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="8">
+        <v>101</v>
+      </c>
+      <c r="C102" s="8"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="8">
+        <v>102</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="8">
+        <v>103</v>
+      </c>
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="8">
+        <v>104</v>
+      </c>
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="8">
+        <v>105</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="8">
+        <v>106</v>
+      </c>
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="8">
+        <v>107</v>
+      </c>
+      <c r="C108" s="8"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="8">
+        <v>108</v>
+      </c>
+      <c r="C109" s="8"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="8">
+        <v>109</v>
+      </c>
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="8">
+        <v>111</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="45" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="C121" s="8"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="8">
+        <v>121</v>
+      </c>
+      <c r="C122" s="8"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
+      <c r="C123" s="8"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="8">
+        <v>123</v>
+      </c>
+      <c r="C124" s="8"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="C125" s="8"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="8">
+        <v>125</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="8">
+        <v>126</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="8">
+        <v>127</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="8">
+        <v>128</v>
+      </c>
+      <c r="C129" s="8"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="8">
+        <v>129</v>
+      </c>
+      <c r="C130" s="8"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="8">
+        <v>130</v>
+      </c>
+      <c r="C131" s="8"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="8">
+        <v>131</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="8">
+        <v>132</v>
+      </c>
+      <c r="C133" s="8"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="8">
+        <v>134</v>
+      </c>
+      <c r="C135" s="8"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="8">
+        <v>135</v>
+      </c>
+      <c r="C136" s="8"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="8">
+        <v>136</v>
+      </c>
+      <c r="C137" s="8"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="8">
+        <v>138</v>
+      </c>
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="8">
+        <v>140</v>
+      </c>
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="8">
+        <v>141</v>
+      </c>
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="8">
+        <v>143</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="8">
+        <v>144</v>
+      </c>
+      <c r="C145" s="8"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="8">
+        <v>145</v>
+      </c>
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="8">
+        <v>146</v>
+      </c>
+      <c r="C147" s="8"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="8">
+        <v>147</v>
+      </c>
+      <c r="C148" s="8"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="8">
+        <v>148</v>
+      </c>
+      <c r="C149" s="8"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="8">
+        <v>149</v>
+      </c>
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="8">
+        <v>150</v>
+      </c>
+      <c r="C151" s="8"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="8">
+        <v>151</v>
+      </c>
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="8">
+        <v>152</v>
+      </c>
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="8">
+        <v>153</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="8">
+        <v>154</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="8">
+        <v>155</v>
+      </c>
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="8">
+        <v>156</v>
+      </c>
+      <c r="C157" s="8"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="8">
+        <v>157</v>
+      </c>
+      <c r="C158" s="8"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="8">
+        <v>158</v>
+      </c>
+      <c r="C159" s="8"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="8">
+        <v>159</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="8">
+        <v>160</v>
+      </c>
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="8">
+        <v>161</v>
+      </c>
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="8">
+        <v>162</v>
+      </c>
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="8">
+        <v>163</v>
+      </c>
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="8">
+        <v>164</v>
+      </c>
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="8">
+        <v>165</v>
+      </c>
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="8">
+        <v>167</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="8">
+        <v>168</v>
+      </c>
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="8">
+        <v>169</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="8">
+        <v>170</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="8">
+        <v>171</v>
+      </c>
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="8">
+        <v>172</v>
+      </c>
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="8">
+        <v>173</v>
+      </c>
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="8">
+        <v>174</v>
+      </c>
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="8">
+        <v>175</v>
+      </c>
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="8">
+        <v>176</v>
+      </c>
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="8">
+        <v>177</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="8">
+        <v>178</v>
+      </c>
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="8">
+        <v>179</v>
+      </c>
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="8">
+        <v>180</v>
+      </c>
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="8">
+        <v>181</v>
+      </c>
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="8">
+        <v>182</v>
+      </c>
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="8">
+        <v>183</v>
+      </c>
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="8">
+        <v>184</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="8">
+        <v>185</v>
+      </c>
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="8">
+        <v>186</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="8">
+        <v>187</v>
+      </c>
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="8">
+        <v>188</v>
+      </c>
+      <c r="C189" s="8"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="8">
+        <v>189</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="8">
+        <v>190</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="8">
+        <v>191</v>
+      </c>
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="8">
+        <v>192</v>
+      </c>
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="8">
+        <v>193</v>
+      </c>
+      <c r="C194" s="8"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="8">
+        <v>194</v>
+      </c>
+      <c r="C195" s="8"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="8">
+        <v>195</v>
+      </c>
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="8">
+        <v>196</v>
+      </c>
+      <c r="C197" s="8"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="8">
+        <v>197</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="8">
+        <v>198</v>
+      </c>
+      <c r="C199" s="8"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="8">
+        <v>199</v>
+      </c>
+      <c r="C200" s="8"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="8">
+        <v>200</v>
+      </c>
+      <c r="C201" s="8"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C67 C70 C72:C201" xr:uid="{635B544C-31D1-4B3A-889A-7EB2C936CCFC}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{5427A910-0EA1-49AD-9406-1920763AE554}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>

--- a/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
+++ b/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D91454-BA99-4E62-9BD5-B4F96DC3F735}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BD78E-34D7-48BE-A07B-32C8F13A39D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="16" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="59" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1223">
   <si>
     <t>No</t>
   </si>
@@ -1706,22 +1706,10 @@
     <t>Initiating 1</t>
   </si>
   <si>
-    <t>Note: fishbone diagram, control chart, histogram đều là tool của quality management tool.
-Phân biệt. 
-Histogram: là dạng biểu đồ dạng cột thể hiện thuộc tính dưới dạng cột, chiều cao của từng cột thể hiện giá trị hiển thị
-pareto chart: mục đích để 
-cause and effect: fishbone, ishikawa diagrams: confirm policies, procedure để tìm ra nguyên nhân vấn đề
-scatter diagrams: có 2 biến để xác định quan hệ của 2 biến đó =&gt; đọc lại các tool technique của quality 
-Tìm hiểu focus group</t>
-  </si>
-  <si>
     <t>Exclusion: ngoại trừ, scop creep là có nhiều yêu cầu k kiểm soát dc</t>
   </si>
   <si>
     <t>strategies for internal stakeholders? Key work của customer</t>
-  </si>
-  <si>
-    <t>unknow risk: reserve management, contigency là sử dụng cho những cái thấy được</t>
   </si>
   <si>
     <t xml:space="preserve"> The next phase of a project should never </t>
@@ -3916,6 +3904,64 @@
   </si>
   <si>
     <t>Procurement</t>
+  </si>
+  <si>
+    <t>the resource histogram là tool for charting human resource, có minh họa số giờ của person, department, hoặc project team sẽ cần làm trong 1 tuần hoặc tháng.</t>
+  </si>
+  <si>
+    <t>Cần nhớ plan for rewards and recognition là 1 phần của resource management plan</t>
+  </si>
+  <si>
+    <t>commercial database là EEF</t>
+  </si>
+  <si>
+    <t>Progressive elaboration is a characteristic of projects.</t>
+  </si>
+  <si>
+    <t>Note: fishbone diagram, control chart, histogram đều là tool của quality management tool.
+Phân biệt. 
+Histogram: là dạng biểu đồ dạng cột thể hiện thuộc tính dưới dạng cột, chiều cao của từng cột thể hiện giá trị hiển thị
+pareto chart: mục đích dạng 80/20
+cause and effect: fishbone, ishikawa diagrams: confirm policies, procedure để tìm ra nguyên nhân vấn đề
+scatter diagrams: có 2 biến để xác định quan hệ của 2 biến đó =&gt; đọc lại các tool technique của quality 
+Tìm hiểu focus group</t>
+  </si>
+  <si>
+    <t>unknow risk: reserve management, Contingency funds are used to handle cost uncertainty due to unforeseen events during a project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The next phase of a project should never.  Trong phase execution thì sẽ bùng nổ nhân sự lớn nhất</t>
+  </si>
+  <si>
+    <t>output của manage stakeholder là stakeholder register</t>
+  </si>
+  <si>
+    <t>The project scope statement provide product description, acceptance criteria, key deliverable, assumption, constraint about the project. Key project deliverables document trong project scope statement</t>
+  </si>
+  <si>
+    <t>The work package is the lowest and most detailed level of the WBS and can be scheduled, cost estimated, monitored, and controlled</t>
+  </si>
+  <si>
+    <t>1 doanh nghiệp đang xem xét hơn 1 tá các dự án nâng cấp. Dự án này sẽ add thêm performance cho tổ chức nhưng không đóng góp doanh thu. Trước khi bắt đầu dự án thì giá trị của project  tổ chức phải đc xác định. Cái nào cho phép là quan trọng nhất để xem xét trong kịch bản này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem lại câu hỏi. Để terminate contract thì các termination clause of the specific subcontract(các điều khoản chấm dứt hợp đồng cụ thể) </t>
+  </si>
+  <si>
+    <t>Responsibility assignment matrix (RACI - Responsible/ Accountable/ Consulted/ Informed</t>
+  </si>
+  <si>
+    <t>encode-&gt;transmit-&gt;decode-&gt;acknowledge-&gt;feedback</t>
+  </si>
+  <si>
+    <t>1 junior đang challengce PM về việc thu thập yêu cầu….
+Project scope statement là chốt làm cái gì/không làm cái gì</t>
+  </si>
+  <si>
+    <t>knowledge gồm explicit và tacit</t>
+  </si>
+  <si>
+    <t>TÌm hiểu phân biệt maximize the business value và revenue =&gt; Chọn các dự án có business value lớn nhất</t>
   </si>
 </sst>
 </file>
@@ -4515,7 +4561,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4818,6 +4864,16 @@
     <xf numFmtId="14" fontId="16" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4840,17 +4896,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5172,8 +5217,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView topLeftCell="E23" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -5203,22 +5248,22 @@
         <v>391</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H1" s="99" t="s">
         <v>459</v>
       </c>
       <c r="I1" s="50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="L1" s="47"/>
       <c r="M1" s="47"/>
@@ -5255,7 +5300,7 @@
         <v>460</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J2" s="47" t="s">
         <v>489</v>
@@ -5296,7 +5341,7 @@
         <v>461</v>
       </c>
       <c r="I3" s="50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J3" s="47" t="s">
         <v>488</v>
@@ -5337,7 +5382,7 @@
         <v>462</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>486</v>
@@ -5378,7 +5423,7 @@
         <v>463</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>484</v>
@@ -5403,7 +5448,7 @@
     </row>
     <row r="6" spans="1:27" ht="15">
       <c r="A6" s="61" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B6" s="55">
         <v>43441</v>
@@ -5418,17 +5463,17 @@
         <v>392</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="50" t="s">
         <v>464</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J6" s="116" t="s">
-        <v>1199</v>
+        <v>543</v>
+      </c>
+      <c r="J6" s="108" t="s">
+        <v>1197</v>
       </c>
       <c r="K6" s="47"/>
       <c r="L6" s="47"/>
@@ -5450,7 +5495,7 @@
     </row>
     <row r="7" spans="1:27" ht="15">
       <c r="A7" s="61" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B7" s="55">
         <v>43442</v>
@@ -5466,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="K7" s="47"/>
       <c r="L7" s="47"/>
@@ -5491,7 +5536,7 @@
     </row>
     <row r="8" spans="1:27" ht="15">
       <c r="A8" s="61" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B8" s="55">
         <v>43443</v>
@@ -5506,14 +5551,14 @@
         <v>392</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="50" t="s">
         <v>466</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J8" s="47" t="s">
         <v>482</v>
@@ -5538,7 +5583,7 @@
     </row>
     <row r="9" spans="1:27" ht="15">
       <c r="A9" s="61" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B9" s="55">
         <v>43451</v>
@@ -5553,14 +5598,14 @@
         <v>392</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="64" t="s">
         <v>467</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>481</v>
@@ -5585,7 +5630,7 @@
     </row>
     <row r="10" spans="1:27" ht="15">
       <c r="A10" s="61" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B10" s="55">
         <f>B9+1</f>
@@ -5607,10 +5652,10 @@
         <v>468</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
@@ -5654,10 +5699,10 @@
         <v>469</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J11" s="120" t="s">
-        <v>1202</v>
+        <v>543</v>
+      </c>
+      <c r="J11" s="112" t="s">
+        <v>1200</v>
       </c>
       <c r="K11" s="47"/>
       <c r="L11" s="47"/>
@@ -5701,7 +5746,7 @@
         <v>386</v>
       </c>
       <c r="I12" s="50"/>
-      <c r="J12" s="121" t="s">
+      <c r="J12" s="113" t="s">
         <v>480</v>
       </c>
       <c r="K12" s="47"/>
@@ -5745,9 +5790,9 @@
         <v>378</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J13" s="121" t="s">
+        <v>543</v>
+      </c>
+      <c r="J13" s="113" t="s">
         <v>478</v>
       </c>
       <c r="K13" s="47"/>
@@ -5791,9 +5836,9 @@
         <v>470</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J14" s="121" t="s">
+        <v>543</v>
+      </c>
+      <c r="J14" s="113" t="s">
         <v>477</v>
       </c>
       <c r="K14" s="47"/>
@@ -5818,10 +5863,10 @@
       <c r="A15" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="114">
         <v>43473</v>
       </c>
-      <c r="C15" s="108" t="str">
+      <c r="C15" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -5837,9 +5882,9 @@
         <v>370</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J15" s="121" t="s">
+        <v>543</v>
+      </c>
+      <c r="J15" s="113" t="s">
         <v>475</v>
       </c>
       <c r="K15" s="47"/>
@@ -5864,8 +5909,8 @@
       <c r="A16" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5878,9 +5923,9 @@
         <v>369</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J16" s="121" t="s">
+        <v>543</v>
+      </c>
+      <c r="J16" s="113" t="s">
         <v>474</v>
       </c>
       <c r="K16" s="47"/>
@@ -5905,8 +5950,8 @@
       <c r="A17" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5919,9 +5964,9 @@
         <v>471</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J17" s="121" t="s">
+        <v>543</v>
+      </c>
+      <c r="J17" s="113" t="s">
         <v>473</v>
       </c>
       <c r="K17" s="47"/>
@@ -5965,9 +6010,9 @@
         <v>472</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J18" s="121" t="s">
+        <v>543</v>
+      </c>
+      <c r="J18" s="113" t="s">
         <v>472</v>
       </c>
       <c r="K18" s="47"/>
@@ -6009,10 +6054,10 @@
         <v>473</v>
       </c>
       <c r="I19" s="71" t="s">
-        <v>545</v>
-      </c>
-      <c r="J19" s="121" t="s">
-        <v>1203</v>
+        <v>543</v>
+      </c>
+      <c r="J19" s="113" t="s">
+        <v>1201</v>
       </c>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
@@ -6036,11 +6081,11 @@
       <c r="A20" s="62" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="108">
+      <c r="B20" s="114">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="108" t="str">
+      <c r="C20" s="114" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -6056,9 +6101,9 @@
         <v>474</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J20" s="121" t="s">
+        <v>543</v>
+      </c>
+      <c r="J20" s="113" t="s">
         <v>471</v>
       </c>
       <c r="K20" s="47"/>
@@ -6083,8 +6128,8 @@
       <c r="A21" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -6097,9 +6142,9 @@
         <v>475</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J21" s="117" t="s">
+        <v>543</v>
+      </c>
+      <c r="J21" s="111" t="s">
         <v>369</v>
       </c>
       <c r="K21" s="47"/>
@@ -6124,8 +6169,8 @@
       <c r="A22" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -6138,9 +6183,9 @@
         <v>476</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J22" s="117" t="s">
+        <v>543</v>
+      </c>
+      <c r="J22" s="109" t="s">
         <v>370</v>
       </c>
       <c r="K22" s="47"/>
@@ -6185,9 +6230,9 @@
         <v>477</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J23" s="117" t="s">
+        <v>543</v>
+      </c>
+      <c r="J23" s="109" t="s">
         <v>371</v>
       </c>
       <c r="K23" s="47"/>
@@ -6230,9 +6275,9 @@
         <v>478</v>
       </c>
       <c r="I24" s="71" t="s">
-        <v>545</v>
-      </c>
-      <c r="J24" s="117" t="s">
+        <v>543</v>
+      </c>
+      <c r="J24" s="109" t="s">
         <v>372</v>
       </c>
       <c r="K24" s="47"/>
@@ -6277,10 +6322,10 @@
         <v>479</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J25" s="118" t="s">
-        <v>1204</v>
+        <v>543</v>
+      </c>
+      <c r="J25" s="110" t="s">
+        <v>1202</v>
       </c>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
@@ -6316,9 +6361,9 @@
         <v>480</v>
       </c>
       <c r="I26" s="71" t="s">
-        <v>856</v>
-      </c>
-      <c r="J26" s="117"/>
+        <v>854</v>
+      </c>
+      <c r="J26" s="109"/>
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
       <c r="M26" s="47"/>
@@ -6355,10 +6400,10 @@
         <v>481</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="J27" s="118" t="s">
-        <v>1205</v>
+        <v>543</v>
+      </c>
+      <c r="J27" s="110" t="s">
+        <v>1203</v>
       </c>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
@@ -6401,9 +6446,9 @@
         <v>473</v>
       </c>
       <c r="I28" s="78" t="s">
-        <v>545</v>
-      </c>
-      <c r="J28" s="117" t="s">
+        <v>543</v>
+      </c>
+      <c r="J28" s="109" t="s">
         <v>386</v>
       </c>
       <c r="K28" s="47"/>
@@ -6426,7 +6471,7 @@
     </row>
     <row r="29" spans="1:27" ht="15">
       <c r="A29" s="93" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B29" s="94">
         <v>43499</v>
@@ -6443,8 +6488,8 @@
       <c r="G29" s="83"/>
       <c r="H29" s="83"/>
       <c r="I29" s="84"/>
-      <c r="J29" s="117" t="s">
-        <v>1206</v>
+      <c r="J29" s="111" t="s">
+        <v>1204</v>
       </c>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
@@ -6487,9 +6532,9 @@
         <v>482</v>
       </c>
       <c r="I30" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="J30" s="122" t="s">
+        <v>543</v>
+      </c>
+      <c r="J30" s="111" t="s">
         <v>463</v>
       </c>
       <c r="K30" s="47"/>
@@ -6534,10 +6579,10 @@
         <v>478</v>
       </c>
       <c r="I31" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="J31" s="119" t="s">
-        <v>1207</v>
+        <v>543</v>
+      </c>
+      <c r="J31" s="111" t="s">
+        <v>1205</v>
       </c>
       <c r="K31" s="47"/>
       <c r="L31" s="47"/>
@@ -6581,7 +6626,7 @@
         <v>480</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J32" s="47"/>
       <c r="K32" s="47"/>
@@ -6604,7 +6649,7 @@
     </row>
     <row r="33" spans="1:27" ht="15">
       <c r="A33" s="93" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B33" s="94">
         <f>B30+ 1</f>
@@ -6658,7 +6703,7 @@
       </c>
       <c r="E34" s="106"/>
       <c r="F34" s="83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
@@ -6708,7 +6753,7 @@
         <v>484</v>
       </c>
       <c r="I35" s="84" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J35" s="47"/>
       <c r="K35" s="47"/>
@@ -6731,7 +6776,7 @@
     </row>
     <row r="36" spans="1:27" ht="15">
       <c r="A36" s="97" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B36" s="94">
         <f>B30 + 10</f>
@@ -6792,7 +6837,7 @@
         <v>485</v>
       </c>
       <c r="I37" s="84" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J37" s="47"/>
       <c r="K37" s="47"/>
@@ -6837,7 +6882,7 @@
         <v>486</v>
       </c>
       <c r="I38" s="84" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="47"/>
@@ -6860,7 +6905,7 @@
     </row>
     <row r="39" spans="1:27" ht="15">
       <c r="A39" s="97" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B39" s="94">
         <f t="shared" si="6"/>
@@ -6914,14 +6959,14 @@
       </c>
       <c r="E40" s="106"/>
       <c r="F40" s="83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G40" s="83"/>
       <c r="H40" s="83" t="s">
         <v>487</v>
       </c>
       <c r="I40" s="84" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J40" s="47"/>
       <c r="K40" s="47"/>
@@ -6959,14 +7004,14 @@
       </c>
       <c r="E41" s="106"/>
       <c r="F41" s="83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G41" s="83"/>
       <c r="H41" s="83" t="s">
         <v>488</v>
       </c>
       <c r="I41" s="84" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J41" s="47"/>
       <c r="K41" s="47"/>
@@ -6989,7 +7034,7 @@
     </row>
     <row r="42" spans="1:27" ht="15">
       <c r="A42" s="97" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B42" s="94">
         <f t="shared" si="6"/>
@@ -7045,7 +7090,7 @@
         <v>392</v>
       </c>
       <c r="F43" s="83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G43" s="83"/>
       <c r="H43" s="83" t="s">
@@ -7088,14 +7133,14 @@
       </c>
       <c r="E44" s="106"/>
       <c r="F44" s="83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G44" s="83"/>
       <c r="H44" s="83" t="s">
         <v>490</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J44" s="47"/>
       <c r="K44" s="47"/>
@@ -7118,7 +7163,7 @@
     </row>
     <row r="45" spans="1:27" ht="15">
       <c r="A45" s="97" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B45" s="94">
         <f>B38+ 2</f>
@@ -7172,14 +7217,14 @@
       </c>
       <c r="E46" s="82"/>
       <c r="F46" s="83" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G46" s="83"/>
       <c r="H46" s="64" t="s">
         <v>491</v>
       </c>
       <c r="I46" s="84" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J46" s="47"/>
       <c r="K46" s="47"/>
@@ -7217,7 +7262,7 @@
       </c>
       <c r="E47" s="106"/>
       <c r="F47" s="83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G47" s="83"/>
       <c r="H47" s="83"/>
@@ -7243,7 +7288,7 @@
     </row>
     <row r="48" spans="1:27" ht="15">
       <c r="A48" s="97" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B48" s="94">
         <f>B45+1</f>
@@ -7297,7 +7342,7 @@
       </c>
       <c r="E49" s="106"/>
       <c r="F49" s="83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G49" s="83"/>
       <c r="H49" s="83"/>
@@ -7340,7 +7385,7 @@
         <v>392</v>
       </c>
       <c r="F50" s="83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G50" s="83"/>
       <c r="H50" s="83"/>
@@ -7366,7 +7411,7 @@
     </row>
     <row r="51" spans="1:27" ht="15">
       <c r="A51" s="97" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B51" s="94">
         <f>B45 + 2</f>
@@ -7420,7 +7465,7 @@
       </c>
       <c r="E52" s="106"/>
       <c r="F52" s="83" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G52" s="83"/>
       <c r="H52" s="83"/>
@@ -7461,7 +7506,7 @@
       </c>
       <c r="E53" s="82"/>
       <c r="F53" s="83" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G53" s="83"/>
       <c r="H53" s="83"/>
@@ -7487,7 +7532,7 @@
     </row>
     <row r="54" spans="1:27" ht="15">
       <c r="A54" s="97" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B54" s="94">
         <f>B45+3</f>
@@ -7541,7 +7586,7 @@
       </c>
       <c r="E55" s="82"/>
       <c r="F55" s="83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G55" s="83"/>
       <c r="H55" s="83"/>
@@ -7582,7 +7627,7 @@
       </c>
       <c r="E56" s="82"/>
       <c r="F56" s="83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G56" s="83"/>
       <c r="H56" s="83"/>
@@ -7608,7 +7653,7 @@
     </row>
     <row r="57" spans="1:27" ht="15">
       <c r="A57" s="97" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B57" s="94">
         <f t="shared" si="7"/>
@@ -7725,7 +7770,7 @@
     </row>
     <row r="60" spans="1:27" ht="15">
       <c r="A60" s="97" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B60" s="94">
         <f t="shared" si="7"/>
@@ -8409,7 +8454,7 @@
       </c>
       <c r="E77" s="82"/>
       <c r="F77" s="83" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G77" s="83"/>
       <c r="H77" s="83"/>
@@ -8528,7 +8573,7 @@
       </c>
       <c r="E80" s="89"/>
       <c r="F80" s="90" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G80" s="90"/>
       <c r="H80" s="90"/>
@@ -32043,6 +32088,8 @@
     <hyperlink ref="A76" location="'Mock Exam 18'!A1" display="Mock Exam 18" xr:uid="{AAAD6C9F-C7E5-4721-A8F7-BCDBDC617092}"/>
     <hyperlink ref="J31" location="Procurement!A1" display="Procurement" xr:uid="{B582D725-D656-4BC8-BC38-EE165D67735C}"/>
     <hyperlink ref="J30" location="Resource!A1" display="Resource" xr:uid="{1558CF88-E21B-447A-9F90-5E20C72FCB65}"/>
+    <hyperlink ref="J29" location="Framework!A1" display="Framework" xr:uid="{29952B4F-F747-439B-A18D-79D0AF63AAC9}"/>
+    <hyperlink ref="J21" location="'Mock Exam 1'!A1" display="Mock Exam 1" xr:uid="{2ABE48F2-A807-4C8D-8707-89EF0F0A5832}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32055,14 +32102,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32083,7 +32130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -32091,14 +32138,10 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="60">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -32106,19 +32149,23 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>877</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="60">
       <c r="A5" s="3">
@@ -32128,7 +32175,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -32138,7 +32185,9 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -32158,7 +32207,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="45">
+    <row r="9" spans="1:5" ht="60">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -32166,9 +32215,11 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>1209</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75">
@@ -32181,7 +32232,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
@@ -32194,7 +32245,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -32248,7 +32299,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -32259,7 +32310,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -32317,7 +32368,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -32330,7 +32381,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -32343,7 +32394,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -32360,15 +32411,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32389,7 +32440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -32398,11 +32449,11 @@
         <v>4</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -32411,8 +32462,8 @@
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>548</v>
+      <c r="E3" s="4" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
@@ -32425,7 +32476,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -32438,7 +32489,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -32451,13 +32502,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F6" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -32466,14 +32517,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>554</v>
+      <c r="E7" s="4" t="s">
+        <v>552</v>
       </c>
       <c r="F7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="120">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="225">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -32481,19 +32532,23 @@
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>1206</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3">
@@ -32504,15 +32559,15 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>556</v>
+      <c r="E11" s="4" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -32570,7 +32625,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -32582,7 +32637,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -32606,7 +32661,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -32620,7 +32675,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -32632,7 +32687,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="7"/>
@@ -32667,7 +32722,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="7"/>
@@ -32743,10 +32798,10 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -32759,10 +32814,10 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
@@ -32772,13 +32827,13 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32788,14 +32843,14 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E5" s="15" t="e">
         <f>- It must be noted that the car has been built, and the Control Quality and Validate Scope processes have been performed for every deliverable. the question is asking about PRODUCT delivery, which occurs during the closing process</f>
         <v>#NAME?</v>
       </c>
       <c r="F5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32806,10 +32861,10 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32821,7 +32876,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
       <c r="F7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G7" s="57"/>
     </row>
@@ -32835,10 +32890,10 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -32859,11 +32914,11 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G10" s="57"/>
     </row>
@@ -32876,7 +32931,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
       <c r="F11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -32888,13 +32943,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="F12" s="57" t="s">
         <v>526</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
@@ -32907,7 +32962,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -32919,7 +32974,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -32934,7 +32989,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="15"/>
       <c r="F15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -32948,7 +33003,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
       <c r="F16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -32961,7 +33016,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -32974,10 +33029,10 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -32990,10 +33045,10 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -33005,7 +33060,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="15"/>
       <c r="F20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -33017,13 +33072,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F21" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -33037,7 +33092,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="15"/>
       <c r="F22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
@@ -33048,7 +33103,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -33059,7 +33114,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -33079,7 +33134,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -33109,7 +33164,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E29" s="15"/>
     </row>
@@ -33141,7 +33196,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -33171,10 +33226,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -33187,7 +33242,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -33198,7 +33253,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -33211,7 +33266,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -33223,7 +33278,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -33245,7 +33300,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E41" s="15"/>
     </row>
@@ -33258,7 +33313,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E42" s="15"/>
     </row>
@@ -33271,7 +33326,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E43" s="15"/>
     </row>
@@ -33311,7 +33366,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E47" s="15"/>
     </row>
@@ -33412,7 +33467,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -33434,7 +33489,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -33465,7 +33520,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G7" s="57"/>
     </row>
@@ -33477,7 +33532,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -33489,10 +33544,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33503,7 +33558,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G10" s="57"/>
     </row>
@@ -33534,10 +33589,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -33558,10 +33613,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -33574,7 +33629,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -33605,7 +33660,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -33618,7 +33673,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -33631,7 +33686,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -33644,7 +33699,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -33683,7 +33738,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E26" s="15"/>
     </row>
@@ -33705,10 +33760,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -33730,7 +33785,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -33742,10 +33797,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -33768,10 +33823,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -33811,7 +33866,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -33824,7 +33879,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -33861,7 +33916,7 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E42" s="15"/>
     </row>
@@ -33892,7 +33947,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>458</v>
@@ -34057,7 +34112,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75">
@@ -34070,7 +34125,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -34081,7 +34136,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G7" s="57"/>
     </row>
@@ -34104,7 +34159,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -34134,7 +34189,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -34156,7 +34211,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -34176,7 +34231,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="105">
@@ -34189,7 +34244,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -34229,7 +34284,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -34260,7 +34315,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
@@ -34273,7 +34328,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60">
@@ -34286,7 +34341,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45">
@@ -34297,7 +34352,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -34308,7 +34363,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -34328,7 +34383,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -34377,7 +34432,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45">
@@ -34390,7 +34445,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -34403,7 +34458,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60">
@@ -34416,7 +34471,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
@@ -34429,7 +34484,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30">
@@ -34442,7 +34497,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -34464,7 +34519,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="105">
@@ -34477,7 +34532,7 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -34519,7 +34574,7 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45">
@@ -34532,7 +34587,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="105">
@@ -34544,10 +34599,10 @@
         <v>4</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="60">
@@ -34560,7 +34615,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="120">
@@ -34572,10 +34627,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -34596,8 +34651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34639,7 +34694,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>492</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -34661,7 +34716,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -34692,11 +34747,11 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G7" s="57"/>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="60">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -34704,10 +34759,10 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -34716,10 +34771,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>496</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -34730,18 +34785,20 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G10" s="57"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>1213</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8">
@@ -34788,23 +34845,27 @@
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="75">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="15" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8">
@@ -34825,10 +34886,10 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="90">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -34836,12 +34897,14 @@
       <c r="C21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>1216</v>
+      </c>
       <c r="E21" s="15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -34851,7 +34914,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>501</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -34863,14 +34926,16 @@
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="45">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8">
@@ -34890,18 +34955,20 @@
         <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="75">
       <c r="A28" s="8">
@@ -34912,10 +34979,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>504</v>
+        <v>1220</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -34925,9 +34992,11 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="30">
+      <c r="E29" s="15" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -34937,7 +35006,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>505</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -34949,10 +35018,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -34975,10 +35044,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -35018,7 +35087,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -35031,7 +35100,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -35068,7 +35137,7 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E42" s="15"/>
     </row>
@@ -35099,7 +35168,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>458</v>
@@ -35234,14 +35303,14 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="57" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -35263,10 +35332,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -35279,10 +35348,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -35295,10 +35364,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -35312,7 +35381,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="57"/>
@@ -35325,7 +35394,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -35358,7 +35427,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -35382,7 +35451,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -35406,7 +35475,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -35420,7 +35489,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -35432,7 +35501,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -35484,7 +35553,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -35496,7 +35565,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -35528,7 +35597,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -35551,10 +35620,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -35578,7 +35647,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -35590,7 +35659,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F31" s="16"/>
     </row>
@@ -35612,7 +35681,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -35634,7 +35703,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -35646,7 +35715,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -35658,7 +35727,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -35701,7 +35770,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
@@ -35716,7 +35785,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -35730,7 +35799,7 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -35744,7 +35813,7 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -35756,7 +35825,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -36501,7 +36570,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -36523,7 +36592,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -36535,7 +36604,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E7" s="15"/>
       <c r="G7" s="57"/>
@@ -36549,7 +36618,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -36562,7 +36631,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -36575,7 +36644,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E10" s="15"/>
       <c r="G10" s="57"/>
@@ -36598,10 +36667,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45">
@@ -36614,7 +36683,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -36652,7 +36721,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60">
@@ -36665,7 +36734,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -36805,10 +36874,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="60">
@@ -36819,7 +36888,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -36852,7 +36921,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45">
@@ -36863,7 +36932,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="75">
@@ -36876,7 +36945,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45">
@@ -36889,7 +36958,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="120">
@@ -36901,7 +36970,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E41" s="15"/>
     </row>
@@ -36915,7 +36984,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -36936,7 +37005,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E44" s="15"/>
     </row>
@@ -36968,7 +37037,7 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -36999,7 +37068,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="75">
@@ -37012,7 +37081,7 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
@@ -37076,7 +37145,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -37090,7 +37159,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -37112,7 +37181,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -37124,7 +37193,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -37137,10 +37206,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="57"/>
@@ -37155,7 +37224,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -37167,7 +37236,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -37202,10 +37271,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -37269,7 +37338,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -37303,7 +37372,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -37337,7 +37406,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -37348,7 +37417,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
@@ -37371,7 +37440,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -37385,7 +37454,7 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -37399,7 +37468,7 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -37411,7 +37480,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -37435,7 +37504,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -37447,7 +37516,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -37461,7 +37530,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -37485,7 +37554,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -37529,7 +37598,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -37542,7 +37611,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
@@ -37557,7 +37626,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -37571,7 +37640,7 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -37585,7 +37654,7 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -37599,7 +37668,7 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -37632,7 +37701,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -37646,7 +37715,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F49" s="16"/>
     </row>
@@ -37660,7 +37729,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -37674,7 +37743,7 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F51" s="16"/>
     </row>
@@ -37737,7 +37806,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -37761,7 +37830,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -37785,7 +37854,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -37799,7 +37868,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="57"/>
@@ -37814,7 +37883,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -37880,7 +37949,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -37902,7 +37971,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -37914,7 +37983,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -37926,7 +37995,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -37938,7 +38007,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -37960,7 +38029,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -37972,7 +38041,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -37986,7 +38055,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -38000,7 +38069,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -38024,7 +38093,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -38038,7 +38107,7 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -38062,7 +38131,7 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -38076,7 +38145,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -38100,7 +38169,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -38126,7 +38195,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -38160,7 +38229,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -38181,10 +38250,10 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F39" s="16"/>
     </row>
@@ -38198,7 +38267,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -38212,7 +38281,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -38224,7 +38293,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -38258,7 +38327,7 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -38272,7 +38341,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -38293,7 +38362,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -38307,7 +38376,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F49" s="16"/>
     </row>
@@ -38319,7 +38388,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -38950,7 +39019,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -38962,7 +39031,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -38984,7 +39053,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -38998,7 +39067,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -39012,7 +39081,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="57"/>
@@ -39035,7 +39104,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -39059,10 +39128,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F11" s="16"/>
       <c r="H11" s="57"/>
@@ -39077,11 +39146,11 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45">
@@ -39094,7 +39163,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -39108,7 +39177,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -39122,7 +39191,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -39134,7 +39203,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -39156,7 +39225,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -39168,7 +39237,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -39182,7 +39251,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -39196,7 +39265,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -39210,7 +39279,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -39234,7 +39303,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -39246,7 +39315,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -39259,10 +39328,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -39273,10 +39342,10 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -39290,7 +39359,7 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -39302,7 +39371,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -39314,7 +39383,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -39336,7 +39405,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -39349,10 +39418,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -39374,7 +39443,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -39398,7 +39467,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -39411,10 +39480,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -39427,10 +39496,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F39" s="16"/>
     </row>
@@ -39443,7 +39512,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -39455,7 +39524,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -39467,7 +39536,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -39478,10 +39547,10 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -39503,7 +39572,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -39517,7 +39586,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -39551,7 +39620,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F49" s="16"/>
     </row>
@@ -39565,7 +39634,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -39579,7 +39648,7 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F51" s="16"/>
     </row>
@@ -39659,7 +39728,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
       <c r="G3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -39736,7 +39805,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>429</v>
@@ -39759,7 +39828,7 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="57" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="90">
@@ -39771,10 +39840,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F11" s="16"/>
       <c r="H11" s="57" t="s">
@@ -39801,11 +39870,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -39818,11 +39887,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -39845,7 +39914,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -39877,7 +39946,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -39891,7 +39960,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -39925,11 +39994,11 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45">
@@ -39940,11 +40009,11 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -39957,7 +40026,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -39971,7 +40040,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -40003,7 +40072,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -40017,7 +40086,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -40041,7 +40110,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -40065,7 +40134,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -40079,7 +40148,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -40654,7 +40723,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -40665,7 +40734,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -40678,7 +40747,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -40700,7 +40769,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -40799,7 +40868,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -40812,7 +40881,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -40850,7 +40919,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90">
@@ -40861,7 +40930,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
@@ -40872,7 +40941,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="105">
@@ -40883,7 +40952,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="150">
@@ -40894,7 +40963,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -40948,7 +41017,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -40977,7 +41046,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -40997,7 +41066,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -41035,7 +41104,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -41162,7 +41231,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -41240,7 +41309,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -41253,10 +41322,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105">
@@ -41268,7 +41337,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -41300,7 +41369,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -41311,7 +41380,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -41334,7 +41403,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E11" s="15"/>
     </row>
@@ -41365,10 +41434,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -41391,10 +41460,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -41415,10 +41484,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -41439,7 +41508,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -41450,10 +41519,10 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -41492,7 +41561,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E25" s="15"/>
     </row>
@@ -41505,7 +41574,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E26" s="15"/>
     </row>
@@ -41518,7 +41587,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E27" s="15"/>
     </row>
@@ -41593,7 +41662,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
@@ -41605,7 +41674,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -41618,7 +41687,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -41641,7 +41710,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -41689,10 +41758,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -41749,7 +41818,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E50" s="15"/>
     </row>
@@ -41838,7 +41907,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -41851,7 +41920,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
@@ -41905,7 +41974,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -41925,7 +41994,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -42327,7 +42396,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -42341,7 +42410,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -42353,7 +42422,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -42367,7 +42436,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -42391,7 +42460,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -42405,7 +42474,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -42419,7 +42488,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -42472,7 +42541,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -42493,7 +42562,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -42505,7 +42574,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -42539,7 +42608,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -42551,7 +42620,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -42595,7 +42664,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -42683,10 +42752,10 @@
         <v>57</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -42698,7 +42767,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -42710,7 +42779,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -42734,7 +42803,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -42746,7 +42815,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -42760,7 +42829,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -42794,7 +42863,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -42826,7 +42895,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -42848,7 +42917,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -42860,7 +42929,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -42882,7 +42951,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -42904,7 +42973,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -43043,7 +43112,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -43067,7 +43136,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -43079,7 +43148,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -43113,7 +43182,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -43125,7 +43194,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -43139,7 +43208,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -43162,7 +43231,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -43174,7 +43243,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -43208,7 +43277,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -43220,7 +43289,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -43232,7 +43301,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -43246,7 +43315,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -43258,7 +43327,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -43357,7 +43426,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -43369,7 +43438,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -43381,7 +43450,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -43393,7 +43462,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -43417,7 +43486,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -43429,7 +43498,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -43453,7 +43522,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -43477,7 +43546,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -43489,7 +43558,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -43500,7 +43569,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -43514,7 +43583,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -43557,10 +43626,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -43574,7 +43643,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -43608,7 +43677,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -44092,7 +44161,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90">
@@ -44103,7 +44172,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -44141,7 +44210,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -44161,7 +44230,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -44181,7 +44250,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -44368,7 +44437,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -44405,7 +44474,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -44496,7 +44565,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E23" s="8"/>
     </row>
@@ -44525,7 +44594,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -45572,7 +45641,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -45585,7 +45654,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -45644,10 +45713,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -45678,10 +45747,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
@@ -45693,7 +45762,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E13" s="15"/>
     </row>
@@ -45706,7 +45775,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -45783,7 +45852,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75">
@@ -45795,10 +45864,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -45819,7 +45888,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E25" s="15"/>
     </row>
@@ -45850,7 +45919,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E28" s="15"/>
     </row>
@@ -45915,7 +45984,7 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E35" s="15"/>
     </row>
@@ -45962,7 +46031,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E40" s="15"/>
     </row>
@@ -46020,7 +46089,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E46" s="15"/>
     </row>
@@ -46051,7 +46120,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E49" s="15"/>
     </row>
@@ -46073,10 +46142,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -47886,10 +47955,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -47931,7 +48000,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -47943,7 +48012,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -47955,7 +48024,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -47979,7 +48048,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -47993,7 +48062,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -48036,7 +48105,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -48048,7 +48117,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -48062,7 +48131,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -48086,7 +48155,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -48100,7 +48169,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -48114,7 +48183,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -48148,7 +48217,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -48162,7 +48231,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -48174,7 +48243,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -48186,7 +48255,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -48200,7 +48269,7 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -48222,7 +48291,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F31" s="16"/>
     </row>
@@ -48236,7 +48305,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -48299,7 +48368,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
@@ -48314,7 +48383,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F39" s="16"/>
     </row>
@@ -48328,7 +48397,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -48342,7 +48411,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -48364,7 +48433,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -48376,7 +48445,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -48388,7 +48457,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -48422,7 +48491,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -48434,7 +48503,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F49" s="16"/>
     </row>
@@ -48446,7 +48515,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -48458,7 +48527,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F51" s="16"/>
     </row>
@@ -48546,14 +48615,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75">
@@ -48564,11 +48633,11 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -48581,7 +48650,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -48605,7 +48674,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -48619,7 +48688,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -48630,10 +48699,10 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -48645,7 +48714,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -48659,7 +48728,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -48671,7 +48740,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -48692,7 +48761,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -48706,7 +48775,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -48720,7 +48789,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -48754,7 +48823,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -48768,7 +48837,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -48780,7 +48849,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -48814,7 +48883,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -48856,7 +48925,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -48868,7 +48937,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -48882,7 +48951,7 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F31" s="16"/>
     </row>
@@ -48894,7 +48963,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -48908,7 +48977,7 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="15" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -48922,7 +48991,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -48945,7 +49014,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -48957,7 +49026,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -48971,7 +49040,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -48995,7 +49064,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -49009,7 +49078,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -49023,7 +49092,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -49035,7 +49104,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -49049,7 +49118,7 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -49073,7 +49142,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -49085,7 +49154,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F47" s="16"/>
     </row>
@@ -49099,7 +49168,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -49112,7 +49181,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
@@ -49127,7 +49196,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -49204,7 +49273,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -49216,7 +49285,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -49240,11 +49309,11 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="165">
@@ -49256,14 +49325,14 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60">
@@ -49276,7 +49345,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -49288,7 +49357,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -49300,7 +49369,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -49313,10 +49382,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -49330,7 +49399,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -49342,7 +49411,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -49355,14 +49424,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>844</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>846</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75">
@@ -49375,11 +49444,11 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="15" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="120">
@@ -49392,7 +49461,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -49404,7 +49473,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -49418,7 +49487,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -49472,7 +49541,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -49495,12 +49564,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45">
@@ -49512,7 +49581,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
@@ -49525,7 +49594,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -50258,152 +50327,152 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="112"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="112"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="116" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="112"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="115"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -50436,225 +50505,231 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="112"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="112"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="112"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="112"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="118"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="118"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -50662,12 +50737,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50688,120 +50757,120 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="112"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="116" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="112"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -50833,120 +50902,120 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="112"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="112"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -51008,10 +51077,10 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="90">
@@ -51022,10 +51091,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
@@ -51037,13 +51106,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -51065,10 +51134,10 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -51080,7 +51149,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
       <c r="F7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G7" s="57"/>
     </row>
@@ -51094,7 +51163,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60">
@@ -51106,10 +51175,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
@@ -51121,10 +51190,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G10" s="57"/>
     </row>
@@ -51146,10 +51215,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F12" s="57"/>
     </row>
@@ -51172,7 +51241,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
@@ -51185,10 +51254,10 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -51208,7 +51277,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
@@ -51219,10 +51288,10 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45">
@@ -51233,10 +51302,10 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="75">
@@ -51249,7 +51318,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60">
@@ -51261,10 +51330,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -51293,7 +51362,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
@@ -51306,7 +51375,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45">
@@ -51319,10 +51388,10 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F26" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75">
@@ -51335,7 +51404,7 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45">
@@ -51346,7 +51415,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
@@ -51359,7 +51428,7 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -51381,10 +51450,10 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F31" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="90">
@@ -51397,10 +51466,10 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
@@ -51411,7 +51480,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="60">
@@ -51422,7 +51491,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -51435,7 +51504,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -51464,10 +51533,10 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F38" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45">
@@ -51480,7 +51549,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -51502,7 +51571,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -51524,10 +51593,10 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F43" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -51548,10 +51617,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45">
@@ -51562,7 +51631,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="75">
@@ -51573,7 +51642,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
@@ -51584,7 +51653,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -51643,135 +51712,135 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="112"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="112"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -52201,7 +52270,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75">
@@ -52214,7 +52283,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G7" s="57"/>
     </row>
@@ -52256,7 +52325,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -52304,7 +52373,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E16" s="15"/>
     </row>
@@ -52344,7 +52413,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -52384,7 +52453,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E24" s="15"/>
     </row>
@@ -52424,7 +52493,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E28" s="15"/>
     </row>
@@ -52507,7 +52576,7 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -52520,10 +52589,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -52562,7 +52631,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E42" s="15"/>
     </row>
@@ -52584,7 +52653,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E44" s="15"/>
     </row>
@@ -52683,7 +52752,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="65" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -52700,7 +52769,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -52753,7 +52822,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -52772,7 +52841,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -52783,7 +52852,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -52799,7 +52868,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -52816,7 +52885,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -52875,7 +52944,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -52898,7 +52967,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -52909,7 +52978,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -52944,7 +53013,7 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -52967,7 +53036,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -52978,7 +53047,7 @@
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -52989,7 +53058,7 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -53030,7 +53099,7 @@
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -53053,7 +53122,7 @@
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -53088,7 +53157,7 @@
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -53099,7 +53168,7 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -53110,7 +53179,7 @@
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -53121,10 +53190,10 @@
         <v>4</v>
       </c>
       <c r="D114" s="45" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E114" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -53141,7 +53210,7 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -53152,7 +53221,7 @@
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -53169,7 +53238,7 @@
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -53180,7 +53249,7 @@
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -53221,7 +53290,7 @@
         <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -53232,7 +53301,7 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -53243,7 +53312,7 @@
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -53286,10 +53355,10 @@
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E134" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -53318,7 +53387,7 @@
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -53335,7 +53404,7 @@
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -53358,7 +53427,7 @@
         <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -53369,7 +53438,7 @@
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -53434,7 +53503,7 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -53445,7 +53514,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -53480,7 +53549,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -53533,7 +53602,7 @@
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -53550,7 +53619,7 @@
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -53561,7 +53630,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -53608,7 +53677,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -53655,7 +53724,7 @@
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -53672,7 +53741,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -53695,7 +53764,7 @@
         <v>4</v>
       </c>
       <c r="D190" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -53706,7 +53775,7 @@
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -53753,7 +53822,7 @@
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -53845,7 +53914,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -53866,10 +53935,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -53889,7 +53958,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -53901,10 +53970,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -53917,7 +53986,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60">
@@ -53930,7 +53999,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -53943,7 +54012,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -54006,7 +54075,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -54017,7 +54086,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -54028,7 +54097,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="120">
@@ -54041,7 +54110,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
@@ -54054,7 +54123,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -54067,7 +54136,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
@@ -54078,7 +54147,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
@@ -54091,7 +54160,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75">
@@ -54104,7 +54173,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
@@ -54115,7 +54184,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -54167,7 +54236,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -54188,10 +54257,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -54202,7 +54271,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -54215,7 +54284,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -54228,7 +54297,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -54239,7 +54308,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45">
@@ -54250,7 +54319,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
@@ -54263,10 +54332,10 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -54276,10 +54345,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -54333,7 +54402,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -54355,7 +54424,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90">
@@ -54368,7 +54437,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -54390,7 +54459,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -54403,7 +54472,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -54433,10 +54502,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
+++ b/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BD78E-34D7-48BE-A07B-32C8F13A39D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A44471-0271-488B-AC32-A4C97D8624DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="16" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="59" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="1239">
   <si>
     <t>No</t>
   </si>
@@ -1754,9 +1754,6 @@
     <t xml:space="preserve">tìm hiểu schedule model </t>
   </si>
   <si>
-    <t>iteractive: cần nhớ</t>
-  </si>
-  <si>
     <t>nắm lại phần Risk categories</t>
   </si>
   <si>
@@ -2413,9 +2410,6 @@
   </si>
   <si>
     <t>chọn đúng rồi lại chọn sai</t>
-  </si>
-  <si>
-    <t>về cơ bản là cứ phải review trc đã</t>
   </si>
   <si>
     <t>project life cycle user WBS chứ k create, project management process is not longer than the project life cycle và nó applies all project. Project management process describe what you do to manage to the project. The project life cycle describes what you need to do to complete the work</t>
@@ -3962,6 +3956,60 @@
   </si>
   <si>
     <t>TÌm hiểu phân biệt maximize the business value và revenue =&gt; Chọn các dự án có business value lớn nhất</t>
+  </si>
+  <si>
+    <t>về cơ bản là cứ phải review trc đã, xem quyen so huu tri tue</t>
+  </si>
+  <si>
+    <t>major constraints on a project: Scope, schedule, cost, quality, risk, resources, and customer satisfaction</t>
+  </si>
+  <si>
+    <t>Meet with key stakeholders to better understand the organization and projects.</t>
+  </si>
+  <si>
+    <t>All of the following are purposes of the project charter except: It identifies the product acceptance criteria.</t>
+  </si>
+  <si>
+    <t>Linear programming is an example of what type of project selection criteria: Constrained optimization: phương trình tuyến tính thì chọn constrained optimization</t>
+  </si>
+  <si>
+    <t>Project selection methods: có 2 thuộc tính Benefit measurement and constrained optimization</t>
+  </si>
+  <si>
+    <t>Nhiều trường hợp crash không hiệu quả assign nhiều ng vào chung 1 task=&gt; cần phải yêu câu bổ sung phối hợp</t>
+  </si>
+  <si>
+    <t>Required additional coordination</t>
+  </si>
+  <si>
+    <t>close phase có 1 số khái niệm: phase gate, kill point, stage gate không có phase planning</t>
+  </si>
+  <si>
+    <t>technique của control quality là data analysis</t>
+  </si>
+  <si>
+    <t>Requirement Traceability matrix là output của collect requirement nó dùng để tracing requirement to project scope, objectives, test strategy</t>
+  </si>
+  <si>
+    <t>The Identify Risks process is an ongoing, iterative process as risks are often identified throughout the project's life cycle</t>
+  </si>
+  <si>
+    <t>identify risk luôn lặp lại và through life cycle project</t>
+  </si>
+  <si>
+    <t>Lưu ý trong lúc plan risk management thì risk categories cung cấp cho identify risk</t>
+  </si>
+  <si>
+    <t>tiết kiệm time nhất là sử dug template của dự án trước đây</t>
+  </si>
+  <si>
+    <t>để hiển thị structure among project team thì sử dụng project organization chart</t>
+  </si>
+  <si>
+    <t>The best position for the new “Identify Key Deliverables” process should be between which of the following two processes là  Collect Requirements and Define Scope</t>
+  </si>
+  <si>
+    <t>A control chart chứa Upper and lower control limits</t>
   </si>
 </sst>
 </file>
@@ -4561,7 +4609,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4874,6 +4922,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5217,8 +5266,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -5248,22 +5297,22 @@
         <v>391</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H1" s="99" t="s">
         <v>459</v>
       </c>
       <c r="I1" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="L1" s="47"/>
       <c r="M1" s="47"/>
@@ -5300,7 +5349,7 @@
         <v>460</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J2" s="47" t="s">
         <v>489</v>
@@ -5341,7 +5390,7 @@
         <v>461</v>
       </c>
       <c r="I3" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J3" s="47" t="s">
         <v>488</v>
@@ -5382,7 +5431,7 @@
         <v>462</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>486</v>
@@ -5423,7 +5472,7 @@
         <v>463</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>484</v>
@@ -5448,7 +5497,7 @@
     </row>
     <row r="6" spans="1:27" ht="15">
       <c r="A6" s="61" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B6" s="55">
         <v>43441</v>
@@ -5463,17 +5512,17 @@
         <v>392</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="50" t="s">
         <v>464</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J6" s="108" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K6" s="47"/>
       <c r="L6" s="47"/>
@@ -5495,7 +5544,7 @@
     </row>
     <row r="7" spans="1:27" ht="15">
       <c r="A7" s="61" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B7" s="55">
         <v>43442</v>
@@ -5511,10 +5560,10 @@
         <v>465</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="K7" s="47"/>
       <c r="L7" s="47"/>
@@ -5536,7 +5585,7 @@
     </row>
     <row r="8" spans="1:27" ht="15">
       <c r="A8" s="61" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B8" s="55">
         <v>43443</v>
@@ -5551,14 +5600,14 @@
         <v>392</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="50" t="s">
         <v>466</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J8" s="47" t="s">
         <v>482</v>
@@ -5583,7 +5632,7 @@
     </row>
     <row r="9" spans="1:27" ht="15">
       <c r="A9" s="61" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B9" s="55">
         <v>43451</v>
@@ -5598,14 +5647,14 @@
         <v>392</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="64" t="s">
         <v>467</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>481</v>
@@ -5630,7 +5679,7 @@
     </row>
     <row r="10" spans="1:27" ht="15">
       <c r="A10" s="61" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B10" s="55">
         <f>B9+1</f>
@@ -5652,10 +5701,10 @@
         <v>468</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
@@ -5699,10 +5748,10 @@
         <v>469</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J11" s="112" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="K11" s="47"/>
       <c r="L11" s="47"/>
@@ -5790,7 +5839,7 @@
         <v>378</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J13" s="113" t="s">
         <v>478</v>
@@ -5836,7 +5885,7 @@
         <v>470</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J14" s="113" t="s">
         <v>477</v>
@@ -5863,10 +5912,10 @@
       <c r="A15" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="B15" s="114">
+      <c r="B15" s="115">
         <v>43473</v>
       </c>
-      <c r="C15" s="114" t="str">
+      <c r="C15" s="115" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -5882,7 +5931,7 @@
         <v>370</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J15" s="113" t="s">
         <v>475</v>
@@ -5909,8 +5958,8 @@
       <c r="A16" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5923,7 +5972,7 @@
         <v>369</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J16" s="113" t="s">
         <v>474</v>
@@ -5950,8 +5999,8 @@
       <c r="A17" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5964,7 +6013,7 @@
         <v>471</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J17" s="113" t="s">
         <v>473</v>
@@ -6010,9 +6059,9 @@
         <v>472</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>543</v>
-      </c>
-      <c r="J18" s="113" t="s">
+        <v>542</v>
+      </c>
+      <c r="J18" s="114" t="s">
         <v>472</v>
       </c>
       <c r="K18" s="47"/>
@@ -6054,10 +6103,10 @@
         <v>473</v>
       </c>
       <c r="I19" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J19" s="113" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
@@ -6081,11 +6130,11 @@
       <c r="A20" s="62" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="114">
+      <c r="B20" s="115">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="114" t="str">
+      <c r="C20" s="115" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -6101,7 +6150,7 @@
         <v>474</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J20" s="113" t="s">
         <v>471</v>
@@ -6128,8 +6177,8 @@
       <c r="A21" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -6142,7 +6191,7 @@
         <v>475</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J21" s="111" t="s">
         <v>369</v>
@@ -6169,8 +6218,8 @@
       <c r="A22" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -6183,9 +6232,9 @@
         <v>476</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>543</v>
-      </c>
-      <c r="J22" s="109" t="s">
+        <v>542</v>
+      </c>
+      <c r="J22" s="111" t="s">
         <v>370</v>
       </c>
       <c r="K22" s="47"/>
@@ -6230,7 +6279,7 @@
         <v>477</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J23" s="109" t="s">
         <v>371</v>
@@ -6275,7 +6324,7 @@
         <v>478</v>
       </c>
       <c r="I24" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J24" s="109" t="s">
         <v>372</v>
@@ -6322,10 +6371,10 @@
         <v>479</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J25" s="110" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
@@ -6361,7 +6410,7 @@
         <v>480</v>
       </c>
       <c r="I26" s="71" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J26" s="109"/>
       <c r="K26" s="47"/>
@@ -6400,10 +6449,10 @@
         <v>481</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J27" s="110" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
@@ -6446,7 +6495,7 @@
         <v>473</v>
       </c>
       <c r="I28" s="78" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J28" s="109" t="s">
         <v>386</v>
@@ -6471,7 +6520,7 @@
     </row>
     <row r="29" spans="1:27" ht="15">
       <c r="A29" s="93" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B29" s="94">
         <v>43499</v>
@@ -6489,7 +6538,7 @@
       <c r="H29" s="83"/>
       <c r="I29" s="84"/>
       <c r="J29" s="111" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
@@ -6532,7 +6581,7 @@
         <v>482</v>
       </c>
       <c r="I30" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J30" s="111" t="s">
         <v>463</v>
@@ -6579,10 +6628,10 @@
         <v>478</v>
       </c>
       <c r="I31" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J31" s="111" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="K31" s="47"/>
       <c r="L31" s="47"/>
@@ -6626,7 +6675,7 @@
         <v>480</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J32" s="47"/>
       <c r="K32" s="47"/>
@@ -6649,7 +6698,7 @@
     </row>
     <row r="33" spans="1:27" ht="15">
       <c r="A33" s="93" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B33" s="94">
         <f>B30+ 1</f>
@@ -6703,7 +6752,7 @@
       </c>
       <c r="E34" s="106"/>
       <c r="F34" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
@@ -6753,7 +6802,7 @@
         <v>484</v>
       </c>
       <c r="I35" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J35" s="47"/>
       <c r="K35" s="47"/>
@@ -6776,7 +6825,7 @@
     </row>
     <row r="36" spans="1:27" ht="15">
       <c r="A36" s="97" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B36" s="94">
         <f>B30 + 10</f>
@@ -6837,7 +6886,7 @@
         <v>485</v>
       </c>
       <c r="I37" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J37" s="47"/>
       <c r="K37" s="47"/>
@@ -6882,7 +6931,7 @@
         <v>486</v>
       </c>
       <c r="I38" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="47"/>
@@ -6905,7 +6954,7 @@
     </row>
     <row r="39" spans="1:27" ht="15">
       <c r="A39" s="97" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B39" s="94">
         <f t="shared" si="6"/>
@@ -6959,14 +7008,14 @@
       </c>
       <c r="E40" s="106"/>
       <c r="F40" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G40" s="83"/>
       <c r="H40" s="83" t="s">
         <v>487</v>
       </c>
       <c r="I40" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J40" s="47"/>
       <c r="K40" s="47"/>
@@ -7004,14 +7053,14 @@
       </c>
       <c r="E41" s="106"/>
       <c r="F41" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G41" s="83"/>
       <c r="H41" s="83" t="s">
         <v>488</v>
       </c>
       <c r="I41" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J41" s="47"/>
       <c r="K41" s="47"/>
@@ -7034,7 +7083,7 @@
     </row>
     <row r="42" spans="1:27" ht="15">
       <c r="A42" s="97" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B42" s="94">
         <f t="shared" si="6"/>
@@ -7090,7 +7139,7 @@
         <v>392</v>
       </c>
       <c r="F43" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G43" s="83"/>
       <c r="H43" s="83" t="s">
@@ -7133,14 +7182,14 @@
       </c>
       <c r="E44" s="106"/>
       <c r="F44" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G44" s="83"/>
       <c r="H44" s="83" t="s">
         <v>490</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J44" s="47"/>
       <c r="K44" s="47"/>
@@ -7163,7 +7212,7 @@
     </row>
     <row r="45" spans="1:27" ht="15">
       <c r="A45" s="97" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B45" s="94">
         <f>B38+ 2</f>
@@ -7217,14 +7266,14 @@
       </c>
       <c r="E46" s="82"/>
       <c r="F46" s="83" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G46" s="83"/>
       <c r="H46" s="64" t="s">
         <v>491</v>
       </c>
       <c r="I46" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J46" s="47"/>
       <c r="K46" s="47"/>
@@ -7262,7 +7311,7 @@
       </c>
       <c r="E47" s="106"/>
       <c r="F47" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G47" s="83"/>
       <c r="H47" s="83"/>
@@ -7288,7 +7337,7 @@
     </row>
     <row r="48" spans="1:27" ht="15">
       <c r="A48" s="97" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B48" s="94">
         <f>B45+1</f>
@@ -7342,7 +7391,7 @@
       </c>
       <c r="E49" s="106"/>
       <c r="F49" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G49" s="83"/>
       <c r="H49" s="83"/>
@@ -7385,7 +7434,7 @@
         <v>392</v>
       </c>
       <c r="F50" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G50" s="83"/>
       <c r="H50" s="83"/>
@@ -7411,7 +7460,7 @@
     </row>
     <row r="51" spans="1:27" ht="15">
       <c r="A51" s="97" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B51" s="94">
         <f>B45 + 2</f>
@@ -7465,7 +7514,7 @@
       </c>
       <c r="E52" s="106"/>
       <c r="F52" s="83" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G52" s="83"/>
       <c r="H52" s="83"/>
@@ -7506,7 +7555,7 @@
       </c>
       <c r="E53" s="82"/>
       <c r="F53" s="83" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G53" s="83"/>
       <c r="H53" s="83"/>
@@ -7532,7 +7581,7 @@
     </row>
     <row r="54" spans="1:27" ht="15">
       <c r="A54" s="97" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B54" s="94">
         <f>B45+3</f>
@@ -7586,7 +7635,7 @@
       </c>
       <c r="E55" s="82"/>
       <c r="F55" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G55" s="83"/>
       <c r="H55" s="83"/>
@@ -7627,7 +7676,7 @@
       </c>
       <c r="E56" s="82"/>
       <c r="F56" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G56" s="83"/>
       <c r="H56" s="83"/>
@@ -7653,7 +7702,7 @@
     </row>
     <row r="57" spans="1:27" ht="15">
       <c r="A57" s="97" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B57" s="94">
         <f t="shared" si="7"/>
@@ -7770,7 +7819,7 @@
     </row>
     <row r="60" spans="1:27" ht="15">
       <c r="A60" s="97" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B60" s="94">
         <f t="shared" si="7"/>
@@ -8454,7 +8503,7 @@
       </c>
       <c r="E77" s="82"/>
       <c r="F77" s="83" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G77" s="83"/>
       <c r="H77" s="83"/>
@@ -8573,7 +8622,7 @@
       </c>
       <c r="E80" s="89"/>
       <c r="F80" s="90" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G80" s="90"/>
       <c r="H80" s="90"/>
@@ -32090,6 +32139,8 @@
     <hyperlink ref="J30" location="Resource!A1" display="Resource" xr:uid="{1558CF88-E21B-447A-9F90-5E20C72FCB65}"/>
     <hyperlink ref="J29" location="Framework!A1" display="Framework" xr:uid="{29952B4F-F747-439B-A18D-79D0AF63AAC9}"/>
     <hyperlink ref="J21" location="'Mock Exam 1'!A1" display="Mock Exam 1" xr:uid="{2ABE48F2-A807-4C8D-8707-89EF0F0A5832}"/>
+    <hyperlink ref="J18" location="'Initiating 3'!A1" display="Executing 3" xr:uid="{20515E6C-9B9E-488B-AB6C-E6CB5D238D83}"/>
+    <hyperlink ref="J22" location="'Mock Exam 2'!A1" display="Mock Exam 2" xr:uid="{BE3A61AF-5C84-4595-8A27-569A6DF5F1FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32150,10 +32201,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
@@ -32164,7 +32215,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60">
@@ -32175,7 +32226,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -32186,7 +32237,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -32207,7 +32258,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="60">
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -32216,10 +32267,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75">
@@ -32232,7 +32283,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
@@ -32245,7 +32296,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -32299,7 +32350,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -32310,7 +32361,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -32368,7 +32419,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -32381,7 +32432,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -32394,7 +32445,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -32450,7 +32501,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -32463,7 +32514,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
@@ -32476,7 +32527,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -32489,7 +32540,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -32502,10 +32553,10 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F6" t="s">
         <v>549</v>
-      </c>
-      <c r="F6" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90">
@@ -32518,13 +32569,13 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="225">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -32533,10 +32584,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -32547,7 +32598,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -32567,7 +32618,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -32625,7 +32676,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -32637,7 +32688,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -32661,7 +32712,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -32675,7 +32726,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -32687,7 +32738,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="7"/>
@@ -32722,7 +32773,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="7"/>
@@ -32798,10 +32849,10 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -32814,10 +32865,10 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
@@ -32827,13 +32878,13 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32843,14 +32894,14 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E5" s="15" t="e">
         <f>- It must be noted that the car has been built, and the Control Quality and Validate Scope processes have been performed for every deliverable. the question is asking about PRODUCT delivery, which occurs during the closing process</f>
         <v>#NAME?</v>
       </c>
       <c r="F5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32861,10 +32912,10 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32876,7 +32927,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
       <c r="F7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G7" s="57"/>
     </row>
@@ -32890,10 +32941,10 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -32914,11 +32965,11 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G10" s="57"/>
     </row>
@@ -32931,7 +32982,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
       <c r="F11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -32943,13 +32994,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="57" t="s">
         <v>525</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
@@ -32962,7 +33013,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -32974,7 +33025,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -32989,7 +33040,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="15"/>
       <c r="F15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -33003,7 +33054,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
       <c r="F16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -33016,7 +33067,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -33029,10 +33080,10 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -33045,10 +33096,10 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -33060,7 +33111,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="15"/>
       <c r="F20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -33072,13 +33123,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F21" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -33092,7 +33143,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="15"/>
       <c r="F22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
@@ -33103,7 +33154,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -33114,7 +33165,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -33134,7 +33185,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -33164,7 +33215,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E29" s="15"/>
     </row>
@@ -33196,7 +33247,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -33226,10 +33277,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -33242,7 +33293,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -33253,7 +33304,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -33266,7 +33317,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -33278,7 +33329,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -33300,7 +33351,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E41" s="15"/>
     </row>
@@ -33313,7 +33364,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E42" s="15"/>
     </row>
@@ -33326,7 +33377,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E43" s="15"/>
     </row>
@@ -33366,7 +33417,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E47" s="15"/>
     </row>
@@ -33424,8 +33475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2583E3-9850-4500-BEA4-2CD763A9903C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33467,7 +33518,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -33532,7 +33583,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -33589,10 +33640,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>666</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -33613,10 +33664,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>668</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -33629,7 +33680,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -33660,7 +33711,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -33866,7 +33917,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -33879,7 +33930,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -33916,7 +33967,7 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E42" s="15"/>
     </row>
@@ -33947,7 +33998,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>458</v>
@@ -34112,7 +34163,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75">
@@ -34125,7 +34176,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -34136,7 +34187,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G7" s="57"/>
     </row>
@@ -34159,7 +34210,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -34189,7 +34240,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -34211,7 +34262,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -34231,7 +34282,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="105">
@@ -34244,7 +34295,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -34284,7 +34335,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -34315,7 +34366,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
@@ -34328,7 +34379,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60">
@@ -34341,7 +34392,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45">
@@ -34352,7 +34403,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -34363,7 +34414,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -34383,7 +34434,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -34432,7 +34483,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45">
@@ -34445,7 +34496,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -34458,7 +34509,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60">
@@ -34471,7 +34522,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
@@ -34484,7 +34535,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30">
@@ -34497,7 +34548,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -34519,7 +34570,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="105">
@@ -34532,7 +34583,7 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -34574,7 +34625,7 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45">
@@ -34587,7 +34638,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="105">
@@ -34599,10 +34650,10 @@
         <v>4</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="60">
@@ -34615,7 +34666,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="120">
@@ -34627,10 +34678,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -34651,8 +34702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34694,7 +34745,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -34759,7 +34810,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45">
@@ -34774,7 +34825,7 @@
         <v>495</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -34797,7 +34848,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -34853,7 +34904,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60">
@@ -34864,7 +34915,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -34898,7 +34949,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>498</v>
@@ -34914,7 +34965,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -34934,7 +34985,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -34967,7 +35018,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75">
@@ -34979,7 +35030,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>501</v>
@@ -34993,7 +35044,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45">
@@ -35006,10 +35057,10 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -35018,13 +35069,13 @@
         <v>4</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>504</v>
+        <v>1227</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -35032,7 +35083,9 @@
       <c r="C32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>1229</v>
+      </c>
       <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5">
@@ -35043,21 +35096,23 @@
       <c r="C33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>506</v>
-      </c>
+      <c r="D33" s="8"/>
       <c r="E33" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60">
       <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8">
@@ -35077,7 +35132,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="45">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -35085,12 +35140,14 @@
       <c r="C37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>1232</v>
+      </c>
       <c r="E37" s="15" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -35100,7 +35157,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>509</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -35130,14 +35187,14 @@
       <c r="D41" s="8"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="30">
       <c r="A42" s="8">
         <v>41</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>510</v>
+        <v>1235</v>
       </c>
       <c r="E42" s="15"/>
     </row>
@@ -35168,7 +35225,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>458</v>
@@ -35182,7 +35239,9 @@
       <c r="C46" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>1236</v>
+      </c>
       <c r="E46" s="15" t="s">
         <v>457</v>
       </c>
@@ -35196,7 +35255,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>455</v>
+        <v>1237</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>456</v>
@@ -35230,7 +35289,9 @@
       <c r="C50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>1238</v>
+      </c>
       <c r="E50" s="15" t="s">
         <v>453</v>
       </c>
@@ -35303,14 +35364,14 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>685</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>686</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="57" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -35332,10 +35393,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>688</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>689</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -35348,10 +35409,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>690</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>691</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -35364,10 +35425,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>692</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>693</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -35381,7 +35442,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="57"/>
@@ -35394,7 +35455,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -35427,7 +35488,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -35451,7 +35512,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -35475,7 +35536,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -35489,7 +35550,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -35501,7 +35562,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -35553,7 +35614,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -35565,7 +35626,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -35597,7 +35658,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -35620,10 +35681,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>704</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>705</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -35647,7 +35708,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -35659,7 +35720,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F31" s="16"/>
     </row>
@@ -35681,7 +35742,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -35703,7 +35764,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -35715,7 +35776,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -35727,7 +35788,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -35770,7 +35831,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
@@ -35785,7 +35846,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -35799,7 +35860,7 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -35813,7 +35874,7 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -35825,7 +35886,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -36570,7 +36631,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -36592,7 +36653,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -36604,7 +36665,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E7" s="15"/>
       <c r="G7" s="57"/>
@@ -36618,7 +36679,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -36631,7 +36692,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -36644,7 +36705,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E10" s="15"/>
       <c r="G10" s="57"/>
@@ -36667,10 +36728,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45">
@@ -36683,7 +36744,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -36721,7 +36782,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60">
@@ -36734,7 +36795,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -36874,10 +36935,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="60">
@@ -36888,7 +36949,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -36921,7 +36982,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45">
@@ -36932,7 +36993,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="75">
@@ -36945,7 +37006,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45">
@@ -36958,7 +37019,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="120">
@@ -36970,7 +37031,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E41" s="15"/>
     </row>
@@ -36984,7 +37045,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -37005,7 +37066,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E44" s="15"/>
     </row>
@@ -37037,7 +37098,7 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -37068,7 +37129,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="75">
@@ -37081,7 +37142,7 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -37145,7 +37206,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -37159,7 +37220,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -37181,7 +37242,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -37193,7 +37254,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -37206,10 +37267,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="57"/>
@@ -37224,7 +37285,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -37236,7 +37297,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -37271,10 +37332,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -37338,7 +37399,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -37372,7 +37433,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -37406,7 +37467,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -37417,7 +37478,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
@@ -37440,7 +37501,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -37454,7 +37515,7 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -37468,7 +37529,7 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -37480,7 +37541,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -37504,7 +37565,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -37516,7 +37577,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="15" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -37530,7 +37591,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -37554,7 +37615,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -37598,7 +37659,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -37611,7 +37672,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
@@ -37626,7 +37687,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -37640,7 +37701,7 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -37654,7 +37715,7 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -37668,7 +37729,7 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -37701,7 +37762,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -37715,7 +37776,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F49" s="16"/>
     </row>
@@ -37729,7 +37790,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -37743,7 +37804,7 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F51" s="16"/>
     </row>
@@ -37806,7 +37867,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -37830,7 +37891,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -37854,7 +37915,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -37868,7 +37929,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="57"/>
@@ -37883,7 +37944,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -37949,7 +38010,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -37971,7 +38032,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -37983,7 +38044,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -37995,7 +38056,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -38007,7 +38068,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -38029,7 +38090,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -38041,7 +38102,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -38055,7 +38116,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -38069,7 +38130,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -38093,7 +38154,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -38107,7 +38168,7 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -38131,7 +38192,7 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -38145,7 +38206,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -38169,7 +38230,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -38195,7 +38256,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -38229,7 +38290,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -38250,10 +38311,10 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F39" s="16"/>
     </row>
@@ -38267,7 +38328,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -38281,7 +38342,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -38293,7 +38354,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -38327,7 +38388,7 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -38341,7 +38402,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -38362,7 +38423,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -38376,7 +38437,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F49" s="16"/>
     </row>
@@ -38388,7 +38449,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -39019,7 +39080,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -39031,7 +39092,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -39053,7 +39114,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -39067,7 +39128,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -39081,7 +39142,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="57"/>
@@ -39104,7 +39165,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -39128,10 +39189,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F11" s="16"/>
       <c r="H11" s="57"/>
@@ -39146,11 +39207,11 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45">
@@ -39163,7 +39224,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -39177,7 +39238,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -39191,7 +39252,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -39203,7 +39264,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -39225,7 +39286,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -39237,7 +39298,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -39251,7 +39312,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -39265,7 +39326,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -39279,7 +39340,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -39303,7 +39364,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -39315,7 +39376,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -39328,10 +39389,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -39342,10 +39403,10 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -39359,7 +39420,7 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -39371,7 +39432,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -39383,7 +39444,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -39405,7 +39466,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -39418,10 +39479,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -39443,7 +39504,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -39467,7 +39528,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -39480,10 +39541,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -39496,10 +39557,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F39" s="16"/>
     </row>
@@ -39512,7 +39573,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -39524,7 +39585,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -39536,7 +39597,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -39547,10 +39608,10 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -39572,7 +39633,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -39586,7 +39647,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -39620,7 +39681,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F49" s="16"/>
     </row>
@@ -39634,7 +39695,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -39648,7 +39709,7 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F51" s="16"/>
     </row>
@@ -39728,7 +39789,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
       <c r="G3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -39805,7 +39866,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>429</v>
@@ -39828,7 +39889,7 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="57" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="90">
@@ -39840,10 +39901,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>586</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>587</v>
       </c>
       <c r="F11" s="16"/>
       <c r="H11" s="57" t="s">
@@ -39870,11 +39931,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -39887,11 +39948,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -39914,7 +39975,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -39946,7 +40007,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -39960,7 +40021,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -39994,11 +40055,11 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45">
@@ -40009,11 +40070,11 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -40026,7 +40087,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -40040,7 +40101,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -40072,7 +40133,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -40086,7 +40147,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -40110,7 +40171,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -40134,7 +40195,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -40148,7 +40209,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -40723,7 +40784,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -40734,7 +40795,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -40747,7 +40808,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -40769,7 +40830,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -40868,7 +40929,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -40881,7 +40942,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -40919,7 +40980,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90">
@@ -40930,7 +40991,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
@@ -40941,7 +41002,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="105">
@@ -40952,7 +41013,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="150">
@@ -40963,7 +41024,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -41017,7 +41078,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -41046,7 +41107,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -41066,7 +41127,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -41104,7 +41165,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -41231,7 +41292,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -41309,7 +41370,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -41322,10 +41383,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105">
@@ -41337,7 +41398,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -41369,7 +41430,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -41380,7 +41441,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -41403,7 +41464,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E11" s="15"/>
     </row>
@@ -41434,10 +41495,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -41460,10 +41521,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -41484,10 +41545,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -41508,7 +41569,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -41519,10 +41580,10 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -41561,7 +41622,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E25" s="15"/>
     </row>
@@ -41574,7 +41635,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E26" s="15"/>
     </row>
@@ -41587,7 +41648,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E27" s="15"/>
     </row>
@@ -41662,7 +41723,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
@@ -41674,7 +41735,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -41687,7 +41748,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -41710,7 +41771,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -41758,10 +41819,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -41818,7 +41879,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E50" s="15"/>
     </row>
@@ -41907,7 +41968,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -41920,7 +41981,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
@@ -41974,7 +42035,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -41994,7 +42055,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -42396,7 +42457,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -42410,7 +42471,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -42422,7 +42483,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -42436,7 +42497,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -42460,7 +42521,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -42474,7 +42535,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -42488,7 +42549,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -42541,7 +42602,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -42562,7 +42623,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -42574,7 +42635,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -42608,7 +42669,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -42620,7 +42681,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -42664,7 +42725,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -42699,7 +42760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5096C7F6-304A-4696-AB04-B782ECAE35C0}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -42743,7 +42806,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -42752,10 +42815,10 @@
         <v>57</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>721</v>
+        <v>1221</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -42767,7 +42830,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -42779,18 +42842,20 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>1222</v>
+      </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="45">
@@ -42803,7 +42868,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -42815,11 +42880,11 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -42827,9 +42892,11 @@
       <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>1223</v>
+      </c>
       <c r="E9" s="15" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -42861,9 +42928,11 @@
       <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>1224</v>
+      </c>
       <c r="E12" s="15" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -42886,7 +42955,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="75">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -42894,8 +42963,11 @@
       <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="D15" s="7" t="s">
+        <v>1225</v>
+      </c>
       <c r="E15" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -42917,7 +42989,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -42927,9 +42999,11 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>1226</v>
+      </c>
       <c r="E18" s="15" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -42951,7 +43025,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -42973,7 +43047,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -43112,7 +43186,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -43136,7 +43210,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -43148,7 +43222,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -43182,7 +43256,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -43194,7 +43268,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -43208,7 +43282,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -43231,7 +43305,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -43243,7 +43317,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -43277,7 +43351,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -43289,7 +43363,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -43301,7 +43375,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -43315,7 +43389,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -43327,7 +43401,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -43426,7 +43500,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -43438,7 +43512,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -43450,7 +43524,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -43462,7 +43536,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -43486,7 +43560,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -43498,7 +43572,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -43522,7 +43596,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -43546,7 +43620,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -43558,7 +43632,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -43569,7 +43643,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -43583,7 +43657,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -43626,10 +43700,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -43643,7 +43717,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -43677,7 +43751,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -44161,7 +44235,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90">
@@ -44172,7 +44246,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -44210,7 +44284,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -44230,7 +44304,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -44250,7 +44324,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -44437,7 +44511,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -44474,7 +44548,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -44565,7 +44639,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E23" s="8"/>
     </row>
@@ -44594,7 +44668,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -45641,7 +45715,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -45654,7 +45728,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -45713,10 +45787,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -45747,10 +45821,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
@@ -45762,7 +45836,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E13" s="15"/>
     </row>
@@ -45775,7 +45849,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -45852,7 +45926,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75">
@@ -45864,10 +45938,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -45888,7 +45962,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E25" s="15"/>
     </row>
@@ -45919,7 +45993,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E28" s="15"/>
     </row>
@@ -45984,7 +46058,7 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E35" s="15"/>
     </row>
@@ -46031,7 +46105,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E40" s="15"/>
     </row>
@@ -46089,7 +46163,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E46" s="15"/>
     </row>
@@ -46120,7 +46194,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E49" s="15"/>
     </row>
@@ -46142,10 +46216,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -47955,10 +48029,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -48000,7 +48074,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -48012,7 +48086,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -48024,7 +48098,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -48048,7 +48122,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -48062,7 +48136,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -48105,7 +48179,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -48117,7 +48191,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -48131,7 +48205,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -48155,7 +48229,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -48169,7 +48243,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -48183,7 +48257,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -48217,7 +48291,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -48231,7 +48305,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -48243,7 +48317,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -48255,7 +48329,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -48269,7 +48343,7 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -48291,7 +48365,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F31" s="16"/>
     </row>
@@ -48305,7 +48379,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -48368,7 +48442,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
@@ -48383,7 +48457,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F39" s="16"/>
     </row>
@@ -48397,7 +48471,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -48411,7 +48485,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -48433,7 +48507,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -48445,7 +48519,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -48457,7 +48531,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -48491,7 +48565,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -48503,7 +48577,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="16"/>
     </row>
@@ -48515,7 +48589,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -48527,7 +48601,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F51" s="16"/>
     </row>
@@ -48615,14 +48689,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75">
@@ -48633,11 +48707,11 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -48650,7 +48724,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -48674,7 +48748,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -48688,7 +48762,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -48699,10 +48773,10 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -48714,7 +48788,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -48728,7 +48802,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -48740,7 +48814,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -48761,7 +48835,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -48775,7 +48849,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -48789,7 +48863,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -48823,7 +48897,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -48837,7 +48911,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -48849,7 +48923,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -48883,7 +48957,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -48925,7 +48999,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -48937,7 +49011,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -48951,7 +49025,7 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F31" s="16"/>
     </row>
@@ -48963,7 +49037,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -48977,7 +49051,7 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -48991,7 +49065,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -49014,7 +49088,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -49026,7 +49100,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -49040,7 +49114,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -49064,7 +49138,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F40" s="16"/>
     </row>
@@ -49078,7 +49152,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -49092,7 +49166,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -49104,7 +49178,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -49118,7 +49192,7 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -49142,7 +49216,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -49154,7 +49228,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F47" s="16"/>
     </row>
@@ -49168,7 +49242,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -49181,7 +49255,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
@@ -49196,7 +49270,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -49273,7 +49347,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -49285,7 +49359,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -49309,11 +49383,11 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="165">
@@ -49325,14 +49399,14 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60">
@@ -49345,7 +49419,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -49357,7 +49431,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -49369,7 +49443,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -49382,10 +49456,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -49399,7 +49473,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -49411,7 +49485,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="15" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -49424,14 +49498,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>842</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>844</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75">
@@ -49444,11 +49518,11 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="15" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="120">
@@ -49461,7 +49535,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -49473,7 +49547,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -49487,7 +49561,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -49541,7 +49615,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -49564,12 +49638,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45">
@@ -49581,7 +49655,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
@@ -49594,7 +49668,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -50327,152 +50401,152 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="119"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="119"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -50505,222 +50579,222 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="119"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="119"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="119"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="119"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="119"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -50757,120 +50831,120 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -50902,120 +50976,120 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -51077,10 +51151,10 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="F2" t="s">
         <v>573</v>
-      </c>
-      <c r="F2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="90">
@@ -51091,10 +51165,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="F3" t="s">
         <v>575</v>
-      </c>
-      <c r="F3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
@@ -51106,13 +51180,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>578</v>
-      </c>
       <c r="F4" s="57" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -51134,10 +51208,10 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -51149,7 +51223,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
       <c r="F7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G7" s="57"/>
     </row>
@@ -51163,7 +51237,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60">
@@ -51175,10 +51249,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
@@ -51190,10 +51264,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G10" s="57"/>
     </row>
@@ -51215,10 +51289,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F12" s="57"/>
     </row>
@@ -51241,7 +51315,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
@@ -51254,10 +51328,10 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -51277,7 +51351,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
@@ -51288,10 +51362,10 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45">
@@ -51302,10 +51376,10 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="75">
@@ -51318,7 +51392,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60">
@@ -51330,10 +51404,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -51362,7 +51436,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
@@ -51375,7 +51449,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45">
@@ -51388,10 +51462,10 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F26" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75">
@@ -51404,7 +51478,7 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45">
@@ -51415,7 +51489,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
@@ -51428,7 +51502,7 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -51450,10 +51524,10 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="90">
@@ -51466,10 +51540,10 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
@@ -51480,7 +51554,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="15" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="60">
@@ -51491,7 +51565,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -51504,7 +51578,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -51533,10 +51607,10 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F38" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45">
@@ -51549,7 +51623,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -51571,7 +51645,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -51593,10 +51667,10 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F43" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -51617,10 +51691,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45">
@@ -51631,7 +51705,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="75">
@@ -51642,7 +51716,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
@@ -51653,7 +51727,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -51712,135 +51786,135 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="119"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -52270,7 +52344,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75">
@@ -52283,7 +52357,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G7" s="57"/>
     </row>
@@ -52325,7 +52399,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -52373,7 +52447,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E16" s="15"/>
     </row>
@@ -52413,7 +52487,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -52453,7 +52527,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E24" s="15"/>
     </row>
@@ -52493,7 +52567,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E28" s="15"/>
     </row>
@@ -52576,7 +52650,7 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -52589,10 +52663,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -52631,7 +52705,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E42" s="15"/>
     </row>
@@ -52653,7 +52727,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E44" s="15"/>
     </row>
@@ -52752,7 +52826,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="65" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -52769,7 +52843,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -52822,7 +52896,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -52841,7 +52915,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -52852,7 +52926,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -52868,7 +52942,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -52885,7 +52959,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -52944,7 +53018,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -52967,7 +53041,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -52978,7 +53052,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -53013,7 +53087,7 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -53036,7 +53110,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -53047,7 +53121,7 @@
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -53058,7 +53132,7 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -53099,7 +53173,7 @@
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -53122,7 +53196,7 @@
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -53157,7 +53231,7 @@
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -53168,7 +53242,7 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -53179,7 +53253,7 @@
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -53190,10 +53264,10 @@
         <v>4</v>
       </c>
       <c r="D114" s="45" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E114" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -53210,7 +53284,7 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -53221,7 +53295,7 @@
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -53238,7 +53312,7 @@
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -53249,7 +53323,7 @@
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -53290,7 +53364,7 @@
         <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -53301,7 +53375,7 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -53312,7 +53386,7 @@
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -53355,10 +53429,10 @@
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E134" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -53387,7 +53461,7 @@
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -53404,7 +53478,7 @@
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -53427,7 +53501,7 @@
         <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -53438,7 +53512,7 @@
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -53503,7 +53577,7 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -53514,7 +53588,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -53549,7 +53623,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -53602,7 +53676,7 @@
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -53619,7 +53693,7 @@
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -53630,7 +53704,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -53677,7 +53751,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -53724,7 +53798,7 @@
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -53741,7 +53815,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -53764,7 +53838,7 @@
         <v>4</v>
       </c>
       <c r="D190" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -53775,7 +53849,7 @@
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -53822,7 +53896,7 @@
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -53914,7 +53988,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -53935,10 +54009,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -53958,7 +54032,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -53970,10 +54044,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -53986,7 +54060,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60">
@@ -53999,7 +54073,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -54012,7 +54086,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -54075,7 +54149,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -54086,7 +54160,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -54097,7 +54171,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="120">
@@ -54110,7 +54184,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
@@ -54123,7 +54197,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -54136,7 +54210,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
@@ -54147,7 +54221,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
@@ -54160,7 +54234,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75">
@@ -54173,7 +54247,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
@@ -54184,7 +54258,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -54236,7 +54310,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -54257,10 +54331,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -54271,7 +54345,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -54284,7 +54358,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -54297,7 +54371,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -54308,7 +54382,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45">
@@ -54319,7 +54393,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
@@ -54332,10 +54406,10 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -54345,10 +54419,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -54402,7 +54476,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -54424,7 +54498,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90">
@@ -54437,7 +54511,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -54459,7 +54533,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -54472,7 +54546,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -54502,10 +54576,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
+++ b/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
@@ -8,69 +8,70 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D866E51E-3913-4F3E-B569-A4078EE2FC71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CDEC87-13F6-4200-9B8D-C8B2A6E6016F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="41" activeTab="46" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="59" r:id="rId1"/>
     <sheet name="Initiating 6" sheetId="63" r:id="rId2"/>
     <sheet name="Initiating 7" sheetId="62" r:id="rId3"/>
     <sheet name="Mock Exam 18" sheetId="60" r:id="rId4"/>
-    <sheet name="Mock Exam 6" sheetId="58" r:id="rId5"/>
-    <sheet name="Mock Exam 5" sheetId="57" r:id="rId6"/>
-    <sheet name="Mock Exam 3" sheetId="33" r:id="rId7"/>
-    <sheet name="Closing 2" sheetId="35" r:id="rId8"/>
-    <sheet name="Closing 5" sheetId="43" r:id="rId9"/>
-    <sheet name="Closing 4" sheetId="39" r:id="rId10"/>
-    <sheet name="Closing 3" sheetId="32" r:id="rId11"/>
-    <sheet name="Framework" sheetId="51" r:id="rId12"/>
-    <sheet name="Quality" sheetId="31" r:id="rId13"/>
-    <sheet name="Resource" sheetId="30" r:id="rId14"/>
-    <sheet name="Monitoring 11" sheetId="45" r:id="rId15"/>
-    <sheet name="Mock Exam 10" sheetId="27" r:id="rId16"/>
-    <sheet name="Mock Exam 2" sheetId="38" r:id="rId17"/>
-    <sheet name="Mock Exam 4" sheetId="55" r:id="rId18"/>
-    <sheet name="Mock Exam 1" sheetId="25" r:id="rId19"/>
-    <sheet name="Planning 2" sheetId="40" r:id="rId20"/>
-    <sheet name="Planning 4" sheetId="24" r:id="rId21"/>
-    <sheet name="monitoring 5" sheetId="52" r:id="rId22"/>
-    <sheet name="monitoring 4" sheetId="37" r:id="rId23"/>
-    <sheet name="monitoring 1" sheetId="46" r:id="rId24"/>
-    <sheet name="monitoring 2" sheetId="41" r:id="rId25"/>
-    <sheet name="monitoring 3" sheetId="23" r:id="rId26"/>
-    <sheet name="Stakeholder" sheetId="1" r:id="rId27"/>
-    <sheet name="Communication" sheetId="29" r:id="rId28"/>
-    <sheet name="Intergrated" sheetId="47" r:id="rId29"/>
-    <sheet name="Cost" sheetId="48" r:id="rId30"/>
-    <sheet name="Risk" sheetId="28" r:id="rId31"/>
-    <sheet name="Procurement" sheetId="2" r:id="rId32"/>
-    <sheet name="Closing 1" sheetId="20" r:id="rId33"/>
-    <sheet name="Initiating 2" sheetId="34" r:id="rId34"/>
-    <sheet name="Initiating 3" sheetId="42" r:id="rId35"/>
-    <sheet name="Initiating 5" sheetId="56" r:id="rId36"/>
-    <sheet name="Initiating 4" sheetId="54" r:id="rId37"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId38"/>
-    <sheet name="Scope" sheetId="10" r:id="rId39"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId40"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId41"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId42"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId43"/>
-    <sheet name="Executing 4" sheetId="53" r:id="rId44"/>
-    <sheet name="Executing 3" sheetId="36" r:id="rId45"/>
-    <sheet name="Executing 8" sheetId="44" r:id="rId46"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId47"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId48"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId49"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId50"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId51"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId52"/>
-    <sheet name="Executing" sheetId="4" r:id="rId53"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId54"/>
-    <sheet name="Closing" sheetId="6" r:id="rId55"/>
-    <sheet name="Mock" sheetId="8" r:id="rId56"/>
-    <sheet name="Full test 1" sheetId="61" r:id="rId57"/>
-    <sheet name="Full Test 4" sheetId="9" r:id="rId58"/>
+    <sheet name="Mock Exam 8" sheetId="64" r:id="rId5"/>
+    <sheet name="Mock Exam 6" sheetId="58" r:id="rId6"/>
+    <sheet name="Mock Exam 5" sheetId="57" r:id="rId7"/>
+    <sheet name="Mock Exam 3" sheetId="33" r:id="rId8"/>
+    <sheet name="Closing 2" sheetId="35" r:id="rId9"/>
+    <sheet name="Closing 5" sheetId="43" r:id="rId10"/>
+    <sheet name="Closing 4" sheetId="39" r:id="rId11"/>
+    <sheet name="Closing 3" sheetId="32" r:id="rId12"/>
+    <sheet name="Framework" sheetId="51" r:id="rId13"/>
+    <sheet name="Quality" sheetId="31" r:id="rId14"/>
+    <sheet name="Resource" sheetId="30" r:id="rId15"/>
+    <sheet name="Monitoring 11" sheetId="45" r:id="rId16"/>
+    <sheet name="Mock Exam 10" sheetId="27" r:id="rId17"/>
+    <sheet name="Mock Exam 2" sheetId="38" r:id="rId18"/>
+    <sheet name="Mock Exam 4" sheetId="55" r:id="rId19"/>
+    <sheet name="Mock Exam 1" sheetId="25" r:id="rId20"/>
+    <sheet name="Planning 2" sheetId="40" r:id="rId21"/>
+    <sheet name="Planning 4" sheetId="24" r:id="rId22"/>
+    <sheet name="monitoring 5" sheetId="52" r:id="rId23"/>
+    <sheet name="monitoring 4" sheetId="37" r:id="rId24"/>
+    <sheet name="monitoring 1" sheetId="46" r:id="rId25"/>
+    <sheet name="monitoring 2" sheetId="41" r:id="rId26"/>
+    <sheet name="monitoring 3" sheetId="23" r:id="rId27"/>
+    <sheet name="Stakeholder" sheetId="1" r:id="rId28"/>
+    <sheet name="Communication" sheetId="29" r:id="rId29"/>
+    <sheet name="Intergrated" sheetId="47" r:id="rId30"/>
+    <sheet name="Cost" sheetId="48" r:id="rId31"/>
+    <sheet name="Risk" sheetId="28" r:id="rId32"/>
+    <sheet name="Procurement" sheetId="2" r:id="rId33"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId34"/>
+    <sheet name="Initiating 2" sheetId="34" r:id="rId35"/>
+    <sheet name="Initiating 3" sheetId="42" r:id="rId36"/>
+    <sheet name="Initiating 5" sheetId="56" r:id="rId37"/>
+    <sheet name="Initiating 4" sheetId="54" r:id="rId38"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId39"/>
+    <sheet name="Scope" sheetId="10" r:id="rId40"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId41"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId42"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId43"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId44"/>
+    <sheet name="Executing 4" sheetId="53" r:id="rId45"/>
+    <sheet name="Executing 3" sheetId="36" r:id="rId46"/>
+    <sheet name="Executing 8" sheetId="44" r:id="rId47"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId48"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId49"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId50"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId51"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId52"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId53"/>
+    <sheet name="Executing" sheetId="4" r:id="rId54"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId55"/>
+    <sheet name="Closing" sheetId="6" r:id="rId56"/>
+    <sheet name="Mock" sheetId="8" r:id="rId57"/>
+    <sheet name="Full test 1" sheetId="61" r:id="rId58"/>
+    <sheet name="Full Test 4" sheetId="9" r:id="rId59"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="1270">
   <si>
     <t>No</t>
   </si>
@@ -5021,6 +5022,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5041,9 +5045,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6041,10 +6042,10 @@
       <c r="A15" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="117">
+      <c r="B15" s="118">
         <v>43473</v>
       </c>
-      <c r="C15" s="117" t="str">
+      <c r="C15" s="118" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -6087,8 +6088,8 @@
       <c r="A16" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -6128,8 +6129,8 @@
       <c r="A17" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
       <c r="D17" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -6259,11 +6260,11 @@
       <c r="A20" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="B20" s="117">
+      <c r="B20" s="118">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="117" t="str">
+      <c r="C20" s="118" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -6306,8 +6307,8 @@
       <c r="A21" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -6347,8 +6348,8 @@
       <c r="A22" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
       <c r="D22" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -32281,6 +32282,169 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3A80B-5C92-444C-86E6-05BC29695160}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A5DEE7C1-57C2-47E9-BB78-F7A901A4DFD7}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E23C0DE-7C2A-4965-86C8-62DEFBCE1853}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -32444,7 +32608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDFCA0E-15B1-4FCC-89C5-A148D6AA017A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -32601,7 +32765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC68079F-684B-43F0-8FD0-98B5FC1777B4}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -32762,7 +32926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F25227D-57C1-4CE8-91AC-A7B1D986105A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -32911,7 +33075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -33084,7 +33248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0EA51E-E33E-4C4C-AD48-50E43566C8D1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -33255,7 +33419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78EF31-A47F-4412-A3CA-C438D7816DE2}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -33924,7 +34088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2583E3-9850-4500-BEA4-2CD763A9903C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -34494,7 +34658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD440D0-468F-462B-9532-3FA36BB45DDC}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -35098,628 +35262,6 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{912EECF0-D67F-4AEB-BB09-8F41C309EB47}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
-    <col min="6" max="6" width="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="225">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="15" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="1:7" ht="60">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="G10" s="57"/>
-    </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="75">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="90">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="45">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="75">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="60">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="15" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" ht="45">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="15" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:5" ht="30">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" ht="30">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="105">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" ht="30">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="75">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15" t="s">
-        <v>445</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{BEF94545-53BB-4A25-884A-FB46C0F726AF}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{F97348EE-9E21-4DDD-9C55-4ED9181CEDA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35865,7 +35407,7 @@
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="117" t="s">
         <v>1264</v>
       </c>
       <c r="E11" s="15"/>
@@ -36274,6 +35816,628 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="225">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="15" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="75">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="90">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="45">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="15" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="75">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="45">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" ht="30">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="30">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="105">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="75">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{BEF94545-53BB-4A25-884A-FB46C0F726AF}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{F97348EE-9E21-4DDD-9C55-4ED9181CEDA3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF518E94-DEA8-4256-BBA2-A9B8503A0CD1}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -36919,7 +37083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB690D-227C-45AA-9C93-A22E8FEE0210}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -37519,7 +37683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC84D3F-832A-445E-B66B-013E6A0F573C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -38184,7 +38348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AD6CE4-A652-4BA6-AF5B-7B55F9607709}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -38839,7 +39003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C855FF4-BDF1-4910-B0A9-D7158B045C46}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -39396,7 +39560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7271A84-E4BF-4C3C-A529-C79AE0E90AA3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -40089,7 +40253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -40769,7 +40933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
@@ -41103,7 +41267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34A5403-C026-4AEF-975E-5986F7A3547D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -41241,155 +41405,6 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{760B9D35-255F-4AB0-B014-6EF0D737344F}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2406BFC1-FDEC-47D4-ABA3-CB9662BD9EDB}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="75">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="90">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="105">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="105">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="150">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>835</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{8889B8CD-38E0-4B21-ABC3-93CC4C878F32}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
   </dataValidations>
@@ -41940,6 +41955,155 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2406BFC1-FDEC-47D4-ABA3-CB9662BD9EDB}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="75">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="60">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="90">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="105">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="150">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{8889B8CD-38E0-4B21-ABC3-93CC4C878F32}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC095154-264D-4CD0-92FD-11A8104E004E}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -42080,7 +42244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696DCF4-14CB-44B7-90D8-B8204394C5DB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -42217,7 +42381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
@@ -42379,7 +42543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
@@ -42720,7 +42884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC4E90-A86A-42A7-A5A8-760D17A592B6}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -43075,7 +43239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5096C7F6-304A-4696-AB04-B782ECAE35C0}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -43427,7 +43591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E7F72C-8763-4FD0-9393-7A7E1BDC492D}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -43771,7 +43935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29A3CE1-998F-4ACC-B0C1-F793A7B2A89D}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -44121,7 +44285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
@@ -44514,148 +44678,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="65" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="135">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>844</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A269D5B3-2AF4-48CB-963B-5CE6E4BE130D}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB276F1D-E283-4EC7-864D-9C4AF9A2426A}">
   <dimension ref="A1:G51"/>
@@ -45250,6 +45272,148 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="60">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="135">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A269D5B3-2AF4-48CB-963B-5CE6E4BE130D}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
@@ -45602,7 +45766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -46581,7 +46745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -47618,7 +47782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -48320,7 +48484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C21AC00-F23C-4DDA-9EE8-A43E265F9EB8}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -48968,7 +49132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B485323A-E48D-48D5-A059-00902955E19C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -49647,7 +49811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574CC2A3-93D7-4AB9-83CF-AF68AB756A5A}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -50035,13 +50199,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50734,7 +50898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -50749,152 +50913,152 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="122"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="120" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="122"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -50912,264 +51076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="119" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="119" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="121"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="119" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="119" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="119" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
-    </row>
-    <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A8" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="119" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="119" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
-    </row>
-    <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="119" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
-    </row>
-    <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="119" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="121"/>
-    </row>
-    <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A12" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="119" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121"/>
-    </row>
-    <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A13" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="119" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BD3238-3975-46A8-A7DD-B5556D27A254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2922F2A-A9C7-4C0C-9376-F4432697F8ED}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51210,45 +51122,31 @@
       <c r="D2" s="8"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1057</v>
-      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" spans="1:7">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="105">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>1060</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:7">
@@ -51270,17 +51168,13 @@
       <c r="E7" s="15"/>
       <c r="G7" s="57"/>
     </row>
-    <row r="8" spans="1:7" ht="75">
+    <row r="8" spans="1:7">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>1061</v>
-      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:7">
@@ -51289,9 +51183,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>1062</v>
-      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:7">
@@ -51304,17 +51196,13 @@
       <c r="E10" s="15"/>
       <c r="G10" s="57"/>
     </row>
-    <row r="11" spans="1:7" ht="45">
+    <row r="11" spans="1:7">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>1063</v>
-      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7">
@@ -51335,46 +51223,32 @@
       <c r="D13" s="8"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="90">
+    <row r="14" spans="1:7">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>1065</v>
-      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="60">
+    <row r="16" spans="1:7">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>1067</v>
-      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8">
@@ -51385,20 +51259,14 @@
       <c r="D17" s="8"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:5" ht="30">
+    <row r="18" spans="1:5">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>1069</v>
-      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8">
@@ -51409,31 +51277,23 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" ht="150">
+    <row r="20" spans="1:5">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>1070</v>
-      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5" ht="30">
+    <row r="21" spans="1:5">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>1072</v>
-      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8">
@@ -51467,12 +51327,8 @@
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>1073</v>
-      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5">
@@ -51480,12 +51336,8 @@
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>1074</v>
-      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5">
@@ -51493,12 +51345,8 @@
         <v>26</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>1075</v>
-      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5">
@@ -51564,41 +51412,31 @@
       <c r="D34" s="8"/>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="1:5" ht="45">
+    <row r="35" spans="1:5">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="15" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30">
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>1077</v>
-      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5" ht="30">
+    <row r="37" spans="1:5">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>1078</v>
-      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5">
@@ -51615,13 +51453,9 @@
         <v>38</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="15" t="s">
-        <v>1079</v>
-      </c>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8">
@@ -51664,15 +51498,9 @@
         <v>43</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>1081</v>
-      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8">
@@ -51719,17 +51547,13 @@
       <c r="D49" s="8"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" ht="30">
+    <row r="50" spans="1:5">
       <c r="A50" s="8">
         <v>49</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>1082</v>
-      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
@@ -51744,18 +51568,270 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{4515F102-7B64-4B51-872B-03889EC50BB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{634F6A67-C34D-41A3-9514-3EAC9DC51B32}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{21BBBE58-97F1-44DB-A30A-FFBDEDF788F5}"/>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{5D313308-5D84-465B-BD46-31AFA3060E29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="122"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="122"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="122"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="122"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="122"/>
+    </row>
+    <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
+      <c r="A10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="122"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A11" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="122"/>
+    </row>
+    <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="122"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -51770,265 +51846,120 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="122"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="119" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="119" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="121"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="119" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="119" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="119" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -52046,6 +51977,151 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="122"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="122"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="120" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="122"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
@@ -52060,135 +52136,135 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="122"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -52205,7 +52281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -52492,7 +52568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
@@ -52507,7 +52583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1"/>
@@ -52522,7 +52598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1"/>
@@ -52535,7 +52611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F383373-F0A3-479D-A7AB-FEC4B3E1DC8F}">
   <dimension ref="A1:G201"/>
   <sheetViews>
@@ -54206,7 +54282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>
@@ -54222,6 +54298,597 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BD3238-3975-46A8-A7DD-B5556D27A254}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7" ht="75">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:7" ht="45">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="90">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="60">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="150">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" ht="45">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="15"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{4515F102-7B64-4B51-872B-03889EC50BB4}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{21BBBE58-97F1-44DB-A30A-FFBDEDF788F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C66373A-941A-4A53-B10D-6CDA563BDAF2}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -54787,7 +55454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -55452,7 +56119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5154B-FB7F-4C88-AD8C-C645C7E775BC}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -55613,167 +56280,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3A80B-5C92-444C-86E6-05BC29695160}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="120">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>797</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A5DEE7C1-57C2-47E9-BB78-F7A901A4DFD7}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
+++ b/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB2271-FD1E-41E7-9E9B-01C3FBB2AC70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB19442-E83A-4A81-B704-3925ACCF1338}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="21" activeTab="26" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="1406">
   <si>
     <t>No</t>
   </si>
@@ -4551,6 +4551,9 @@
 - potential risk response - được confirmed ở plan risk response process
 Risk register được get detail và detail through other process trong risk.
 perform qualitative risk analysis là xác định độ ưu tiên individual project risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risk rating matrix được phát triển bởi công ty để đánh giá risk chính vì thế nó cần được chuẩn bóa (standardized) và không được thay đổi vì sẽ khiến khó đánh giá sự khác nhau giữa các dự án =&gt; ma trận đánh giá rủi ro: risk rating matrix </t>
   </si>
 </sst>
 </file>
@@ -40121,8 +40124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B257369-A694-4BAC-BC83-9F2B4219DD5E}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40161,13 +40164,17 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1405</v>
+      </c>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6">
@@ -55561,12 +55568,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -55574,6 +55575,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
+++ b/10_Management/Exam_PMP_Finish_07032019 - TrungLV_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB19442-E83A-4A81-B704-3925ACCF1338}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79AF12A-2F30-449B-A764-F724133E69CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="21" activeTab="26" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="61" activeTab="66" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="59" r:id="rId1"/>
@@ -19,66 +19,68 @@
     <sheet name="Initiating 7" sheetId="62" r:id="rId4"/>
     <sheet name="Mock Exam 18" sheetId="60" r:id="rId5"/>
     <sheet name="Mock Exam 7" sheetId="65" r:id="rId6"/>
-    <sheet name="Mock Exam 12" sheetId="69" r:id="rId7"/>
-    <sheet name="Mock Exam 9" sheetId="66" r:id="rId8"/>
-    <sheet name="Mock Exam 8" sheetId="64" r:id="rId9"/>
-    <sheet name="Mock Exam 6" sheetId="58" r:id="rId10"/>
-    <sheet name="Mock Exam 5" sheetId="57" r:id="rId11"/>
-    <sheet name="Mock Exam 3" sheetId="33" r:id="rId12"/>
-    <sheet name="Closing 2" sheetId="35" r:id="rId13"/>
-    <sheet name="Closing 5" sheetId="43" r:id="rId14"/>
-    <sheet name="Closing 4" sheetId="39" r:id="rId15"/>
-    <sheet name="Closing 3" sheetId="32" r:id="rId16"/>
-    <sheet name="Framework" sheetId="51" r:id="rId17"/>
-    <sheet name="Quality" sheetId="31" r:id="rId18"/>
-    <sheet name="Resource" sheetId="30" r:id="rId19"/>
-    <sheet name="Monitoring 11" sheetId="45" r:id="rId20"/>
-    <sheet name="Mock Exam 11" sheetId="68" r:id="rId21"/>
-    <sheet name="Mock Exam 10" sheetId="27" r:id="rId22"/>
-    <sheet name="Mock Exam 2" sheetId="38" r:id="rId23"/>
-    <sheet name="Mock Exam 4" sheetId="55" r:id="rId24"/>
-    <sheet name="Mock Exam 1" sheetId="25" r:id="rId25"/>
-    <sheet name="Planning 2" sheetId="40" r:id="rId26"/>
-    <sheet name="Planning 8" sheetId="72" r:id="rId27"/>
-    <sheet name="Planning 4" sheetId="24" r:id="rId28"/>
-    <sheet name="monitoring 5" sheetId="52" r:id="rId29"/>
-    <sheet name="monitoring 4" sheetId="37" r:id="rId30"/>
-    <sheet name="monitoring 1" sheetId="46" r:id="rId31"/>
-    <sheet name="monitoring 2" sheetId="41" r:id="rId32"/>
-    <sheet name="monitoring 3" sheetId="23" r:id="rId33"/>
-    <sheet name="Stakeholder" sheetId="1" r:id="rId34"/>
-    <sheet name="Communication" sheetId="29" r:id="rId35"/>
-    <sheet name="Intergrated" sheetId="47" r:id="rId36"/>
-    <sheet name="Cost" sheetId="48" r:id="rId37"/>
-    <sheet name="Risk" sheetId="28" r:id="rId38"/>
-    <sheet name="Procurement" sheetId="2" r:id="rId39"/>
-    <sheet name="Closing 1" sheetId="20" r:id="rId40"/>
-    <sheet name="Initiating 2" sheetId="34" r:id="rId41"/>
-    <sheet name="Initiating 3" sheetId="42" r:id="rId42"/>
-    <sheet name="Initiating 5" sheetId="56" r:id="rId43"/>
-    <sheet name="Initiating 4" sheetId="54" r:id="rId44"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId45"/>
-    <sheet name="Scope" sheetId="10" r:id="rId46"/>
-    <sheet name="Planning 6" sheetId="71" r:id="rId47"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId48"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId49"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId50"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId51"/>
-    <sheet name="Executing 4" sheetId="53" r:id="rId52"/>
-    <sheet name="Executing 3" sheetId="36" r:id="rId53"/>
-    <sheet name="Executing 8" sheetId="44" r:id="rId54"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId55"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId56"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId57"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId58"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId59"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId60"/>
-    <sheet name="Executing" sheetId="4" r:id="rId61"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId62"/>
-    <sheet name="Closing" sheetId="6" r:id="rId63"/>
-    <sheet name="Mock" sheetId="8" r:id="rId64"/>
-    <sheet name="Full test 1" sheetId="61" r:id="rId65"/>
-    <sheet name="Full Test 4" sheetId="9" r:id="rId66"/>
+    <sheet name="Mock Exam 15" sheetId="74" r:id="rId7"/>
+    <sheet name="Mock Exam 12" sheetId="69" r:id="rId8"/>
+    <sheet name="Mock Exam 9" sheetId="66" r:id="rId9"/>
+    <sheet name="Mock Exam 8" sheetId="64" r:id="rId10"/>
+    <sheet name="Mock Exam 6" sheetId="58" r:id="rId11"/>
+    <sheet name="Mock Exam 5" sheetId="57" r:id="rId12"/>
+    <sheet name="Mock Exam 3" sheetId="33" r:id="rId13"/>
+    <sheet name="Closing 2" sheetId="35" r:id="rId14"/>
+    <sheet name="Closing 5" sheetId="43" r:id="rId15"/>
+    <sheet name="Closing 4" sheetId="39" r:id="rId16"/>
+    <sheet name="Closing 3" sheetId="32" r:id="rId17"/>
+    <sheet name="Framework" sheetId="51" r:id="rId18"/>
+    <sheet name="Quality" sheetId="31" r:id="rId19"/>
+    <sheet name="Resource" sheetId="30" r:id="rId20"/>
+    <sheet name="Monitoring 11" sheetId="45" r:id="rId21"/>
+    <sheet name="Mock Exam 11" sheetId="68" r:id="rId22"/>
+    <sheet name="Mock Exam 10" sheetId="27" r:id="rId23"/>
+    <sheet name="Mock Exam 2" sheetId="38" r:id="rId24"/>
+    <sheet name="Mock Exam 4" sheetId="55" r:id="rId25"/>
+    <sheet name="Mock Exam 1" sheetId="25" r:id="rId26"/>
+    <sheet name="Planning 2" sheetId="40" r:id="rId27"/>
+    <sheet name="Planning 10" sheetId="73" r:id="rId28"/>
+    <sheet name="Planning 8" sheetId="72" r:id="rId29"/>
+    <sheet name="Planning 4" sheetId="24" r:id="rId30"/>
+    <sheet name="monitoring 5" sheetId="52" r:id="rId31"/>
+    <sheet name="monitoring 4" sheetId="37" r:id="rId32"/>
+    <sheet name="monitoring 1" sheetId="46" r:id="rId33"/>
+    <sheet name="monitoring 2" sheetId="41" r:id="rId34"/>
+    <sheet name="monitoring 3" sheetId="23" r:id="rId35"/>
+    <sheet name="Stakeholder" sheetId="1" r:id="rId36"/>
+    <sheet name="Communication" sheetId="29" r:id="rId37"/>
+    <sheet name="Intergrated" sheetId="47" r:id="rId38"/>
+    <sheet name="Cost" sheetId="48" r:id="rId39"/>
+    <sheet name="Risk" sheetId="28" r:id="rId40"/>
+    <sheet name="Procurement" sheetId="2" r:id="rId41"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId42"/>
+    <sheet name="Initiating 2" sheetId="34" r:id="rId43"/>
+    <sheet name="Initiating 3" sheetId="42" r:id="rId44"/>
+    <sheet name="Initiating 5" sheetId="56" r:id="rId45"/>
+    <sheet name="Initiating 4" sheetId="54" r:id="rId46"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId47"/>
+    <sheet name="Scope" sheetId="10" r:id="rId48"/>
+    <sheet name="Planning 6" sheetId="71" r:id="rId49"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId50"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId51"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId52"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId53"/>
+    <sheet name="Executing 4" sheetId="53" r:id="rId54"/>
+    <sheet name="Executing 3" sheetId="36" r:id="rId55"/>
+    <sheet name="Executing 8" sheetId="44" r:id="rId56"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId57"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId58"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId59"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId60"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId61"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId62"/>
+    <sheet name="Executing" sheetId="4" r:id="rId63"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId64"/>
+    <sheet name="Closing" sheetId="6" r:id="rId65"/>
+    <sheet name="Mock" sheetId="8" r:id="rId66"/>
+    <sheet name="Full test 1" sheetId="61" r:id="rId67"/>
+    <sheet name="Full Test 4" sheetId="9" r:id="rId68"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="1445">
   <si>
     <t>No</t>
   </si>
@@ -4554,6 +4556,127 @@
   </si>
   <si>
     <t xml:space="preserve">risk rating matrix được phát triển bởi công ty để đánh giá risk chính vì thế nó cần được chuẩn bóa (standardized) và không được thay đổi vì sẽ khiến khó đánh giá sự khác nhau giữa các dự án =&gt; ma trận đánh giá rủi ro: risk rating matrix </t>
+  </si>
+  <si>
+    <t>cost baseline có contigency reserve, cost budget gồm cả  contigency reserve + management reservere</t>
+  </si>
+  <si>
+    <t>ý này không liên quan tới câu hỏi: Functional management was not included in the communications management plan.</t>
+  </si>
+  <si>
+    <t>resource availability nằm trong acquire project team</t>
+  </si>
+  <si>
+    <t>Work with stakeholders to determine their communication preferences =&gt; communication planning</t>
+  </si>
+  <si>
+    <t>Project governance =&gt; can be established and administered by a project management office (PMO) sẽ support các dự án</t>
+  </si>
+  <si>
+    <t>Liên quan đến policies, high-level strategic thì liên quan tới Organizational governance</t>
+  </si>
+  <si>
+    <t>OBS (organization breakdown structure): show responsibilities by department, RBS break workdown by type resource
+resource histogram show resource và time unit. Team directory là list member</t>
+  </si>
+  <si>
+    <t>trường hợp PM non kinh nghiệm, trong team không có ng có kinh nghiệm về mua sắm thì có thể thuê ngoài, nên ông ấy đã: Look for organizational process assets, look for expert judgment, and review contract types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tools of the Control Procurements process: Inspections, performance reviews, and claims administration. </t>
+  </si>
+  <si>
+    <t>Make-or-buy analysis is a tool of Plan Procurement Management. Bidder conferences and negotiations are tools of Conduct Procurements.  
+ The contract change control system is an enterprise environmental factor.</t>
+  </si>
+  <si>
+    <t>thằng PM cần có tiền để trang trải procurement. Gặp sponsor thì vẫn cần phải có creating contracts that helps protect the company and its projects (bảo vệ hợp đồng, bảo vệ dự án)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> responsible for identifying constraints and assumptions, identifying requirements, and performing risk management =&gt; stakeholders</t>
+  </si>
+  <si>
+    <t>cần phải ou will use rolling wave planning, inviting only stakeholders for the first two phases.</t>
+  </si>
+  <si>
+    <t>risk ranking matrix là ma trận output của process qualitative risk analysis. rất quan trọng và được sử dụng được đánh giá mức độ rủi ro (risk rating) giữa các project với nhau. Đây cũng là cơ sở để PMO ra quyết định về chính sách xử lý rủi ro với các dự án khác nhau.
+Như thế output của Qualitative risk analysis bao gồm Watch list, Short list of risks, và Overall risk rating (risk ranking matrix). Đây là những keyword rất quan trọng nếu bạn có kế hoạch thi PMP hay PMI-RMP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected monetary value is probability times impact </t>
+  </si>
+  <si>
+    <t>Nhớ avoid không có nghĩa là prevent from happening, thay vào đó có nghĩa là eliminate the cause (loại bỏ nguyên nhân).  "Deflect" là nghĩa khác của "transfer."  mua bảo hiểm là một dạng transfer sang hướng khác</t>
+  </si>
+  <si>
+    <t>Mục đích của decision tree là make một informed decision today based on probability and impact analysis. You can plan for the risk based on the expected monetary value of each of your options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu risk rõ ràng là một oppoturnity thì cần phải exploit triệt để. Enhance là oppoturnity là chưa rõ ràng. </t>
+  </si>
+  <si>
+    <t>Việc training có trong 2 ngày thì nên add nó vào trong plan chứ không cần thiết phải hỏi manager, hoặc offer bonus team member.</t>
+  </si>
+  <si>
+    <t>Muốn quick review project's procedures for managing risk. Thông tin tốt nhất là risk management plan</t>
+  </si>
+  <si>
+    <t>The risk management plan identifies how risks will be managed on the project.</t>
+  </si>
+  <si>
+    <t>compentency: nang luc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The completion of project scope is measured against the project management plan, and the completion of product scope is measured against the product requirements.</t>
+  </si>
+  <si>
+    <t>complete of project scope là project management plan</t>
+  </si>
+  <si>
+    <t>Passive acceptance involves no proactive action apart from periodic review of the
+threat to ensure that it does not change significantly</t>
+  </si>
+  <si>
+    <t>trường hợp passive acceptance là chấp nhận rủi ro không làm gì cả nhưng vẫn phải xem xét negative. Acceptance active là có reserve</t>
+  </si>
+  <si>
+    <t>estimates will include direct costs only or include indirect costs là estimate cost</t>
+  </si>
+  <si>
+    <t>Trường hợp mà thằng PM nó chuẩn bị đến cuộc họp và nó review report thấy có lỗi, không có đủ thời gian để cancel meeting thì nó sẽ Disclose that you have just discovered there is an error in some of the information you intended to present and only present the information that you know is true</t>
+  </si>
+  <si>
+    <t>The project requirements determine the style and detail of the quality management plan.</t>
+  </si>
+  <si>
+    <t>SOW là 1 phần của request for information, 1 phần của request for proposal, 1 phần  của contract, không nằm trong business case</t>
+  </si>
+  <si>
+    <t>A lead allows an acceleration of the successor activity.</t>
+  </si>
+  <si>
+    <t>Cost and staffing levels are low at the start of the project.</t>
+  </si>
+  <si>
+    <t>độ lệch của estimate là Variance</t>
+  </si>
+  <si>
+    <t>Ethic: PM phải tôn trọng tôn giáo cho dù vấn đề dự án có như thế nào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đọc sai câu hỏi và câu trả lời </t>
+  </si>
+  <si>
+    <t>The Work Breakdown Structure (WBS) provides the framework for the cost management plan. The WBS contains control accounts, which link directly to the performing organization's accounting system</t>
+  </si>
+  <si>
+    <t>nominal group = voting + brain storming</t>
+  </si>
+  <si>
+    <t>One of the individuals in the group made the decision for the group =&gt; độc tài: autocratic</t>
+  </si>
+  <si>
+    <t>. The performance against baselines</t>
   </si>
 </sst>
 </file>
@@ -32754,6 +32877,569 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2922F2A-A9C7-4C0C-9376-F4432697F8ED}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="45">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="45">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" ht="30">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="30">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="15"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{634F6A67-C34D-41A3-9514-3EAC9DC51B32}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{5D313308-5D84-465B-BD46-31AFA3060E29}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BD3238-3975-46A8-A7DD-B5556D27A254}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -33344,7 +34030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C66373A-941A-4A53-B10D-6CDA563BDAF2}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -33910,7 +34596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -34575,7 +35261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5154B-FB7F-4C88-AD8C-C645C7E775BC}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -34738,7 +35424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3A80B-5C92-444C-86E6-05BC29695160}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -34901,7 +35587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E23C0DE-7C2A-4965-86C8-62DEFBCE1853}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -35065,7 +35751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDFCA0E-15B1-4FCC-89C5-A148D6AA017A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -35222,7 +35908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC68079F-684B-43F0-8FD0-98B5FC1777B4}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -35383,7 +36069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F25227D-57C1-4CE8-91AC-A7B1D986105A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -35525,179 +36211,6 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{C25676CB-0E13-4DAC-A339-307289FD36DA}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="F6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="120">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{990F738F-95B8-418E-A433-42A014F7A5A1}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36254,6 +36767,179 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{990F738F-95B8-418E-A433-42A014F7A5A1}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0EA51E-E33E-4C4C-AD48-50E43566C8D1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -36424,7 +37110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1504FF36-C329-47DD-BCB7-C5C298A0DF66}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -37005,7 +37691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78EF31-A47F-4412-A3CA-C438D7816DE2}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -37673,7 +38359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2583E3-9850-4500-BEA4-2CD763A9903C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -38243,7 +38929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD440D0-468F-462B-9532-3FA36BB45DDC}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -38852,7 +39538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -39474,7 +40160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF518E94-DEA8-4256-BBA2-A9B8503A0CD1}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -40120,12 +40806,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B257369-A694-4BAC-BC83-9F2B4219DD5E}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB095DA6-9DB5-47AF-86A2-6B65E3983DED}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40153,18 +40839,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="180">
+    <row r="2" spans="1:6">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>1404</v>
-      </c>
+      <c r="D2" s="8"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="45">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -40173,17 +40857,21 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1407</v>
+      </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:6">
@@ -40223,13 +40911,17 @@
       <c r="D8" s="8"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1408</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:6">
@@ -40278,13 +40970,17 @@
       <c r="D14" s="7"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1409</v>
+      </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:6">
@@ -40368,22 +41064,30 @@
       <c r="D24" s="8"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="45">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>1410</v>
+      </c>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>1411</v>
+      </c>
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5">
@@ -40404,13 +41108,17 @@
       <c r="D28" s="8"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="75">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1412</v>
+      </c>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5">
@@ -40467,23 +41175,33 @@
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="75">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>1413</v>
+      </c>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="90">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>1415</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8">
@@ -40494,13 +41212,17 @@
       <c r="D38" s="8"/>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="60">
       <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>1416</v>
+      </c>
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5">
@@ -40512,13 +41234,17 @@
       <c r="D40" s="8"/>
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="45">
       <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>1417</v>
+      </c>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5">
@@ -40539,13 +41265,17 @@
       <c r="D43" s="8"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="45">
       <c r="A44" s="8">
         <v>43</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1418</v>
+      </c>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5">
@@ -40613,7 +41343,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{EA0DFF27-E326-46AF-8B2B-3EF25521B021}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{6072CC30-1854-4D0E-87F5-51D71D8FC304}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
   </dataValidations>
@@ -40621,612 +41351,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB690D-227C-45AA-9C93-A22E8FEE0210}">
-  <dimension ref="A1:G51"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B257369-A694-4BAC-BC83-9F2B4219DD5E}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
-    <col min="6" max="6" width="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="57" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="75">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" ht="60">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" ht="45">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" ht="105">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="45">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" ht="60">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{D6E03527-91B7-4E85-9998-19601914B008}">
-      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{7AFBB83B-0375-4682-9754-8AED4B943E59}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{6F43ACDE-95A2-4974-8C5D-AE80E15D1CF0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC84D3F-832A-445E-B66B-013E6A0F573C}">
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41235,10 +41365,9 @@
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" customWidth="1"/>
-    <col min="6" max="6" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
+    <row r="1" spans="1:6" ht="25.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -41254,25 +41383,19 @@
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60">
+    </row>
+    <row r="2" spans="1:6" ht="180">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="15" t="s">
-        <v>905</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="165">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -41280,90 +41403,73 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>1405</v>
+      </c>
       <c r="E3" s="15" t="s">
-        <v>906</v>
-      </c>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1420</v>
+      </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="15" t="s">
-        <v>907</v>
-      </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="15" t="s">
-        <v>908</v>
-      </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="60">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>910</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="1:8" ht="60">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="15" t="s">
-        <v>911</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="75">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="15" t="s">
-        <v>912</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -41371,10 +41477,9 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="57"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -41382,10 +41487,8 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="H11" s="57"/>
-    </row>
-    <row r="12" spans="1:8" ht="45">
+    </row>
+    <row r="12" spans="1:6" ht="75">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -41394,14 +41497,11 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:8">
+        <v>1421</v>
+      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -41409,9 +41509,8 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -41419,19 +41518,21 @@
       <c r="C14" s="8"/>
       <c r="D14" s="7"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1422</v>
+      </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -41439,9 +41540,8 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -41449,9 +41549,8 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="60">
+    </row>
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -41459,13 +41558,12 @@
       <c r="C18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="D18" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -41473,9 +41571,8 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -41483,23 +41580,17 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="45">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -41507,45 +41598,39 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5" ht="45">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>1424</v>
+      </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" ht="60">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="15" t="s">
-        <v>917</v>
-      </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="45">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>918</v>
-      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -41553,35 +41638,32 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="30">
+    </row>
+    <row r="27" spans="1:5" ht="45">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1425</v>
+      </c>
       <c r="E27" s="15" t="s">
-        <v>919</v>
-      </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="45">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="15" t="s">
-        <v>920</v>
-      </c>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="45">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -41590,24 +41672,18 @@
         <v>4</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="15" t="s">
-        <v>921</v>
-      </c>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" ht="30">
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="15" t="s">
-        <v>922</v>
-      </c>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -41615,49 +41691,35 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" ht="60">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="15" t="s">
-        <v>923</v>
-      </c>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" ht="60">
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="15" t="s">
-        <v>924</v>
-      </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" ht="30">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -41665,23 +41727,17 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" ht="60">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="15" t="s">
-        <v>926</v>
-      </c>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -41689,9 +41745,8 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -41699,9 +41754,8 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -41709,93 +41763,62 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" ht="30">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="15" t="s">
-        <v>927</v>
-      </c>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" ht="45">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>928</v>
-      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" ht="75">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="8">
         <v>41</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="15" t="s">
-        <v>929</v>
-      </c>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" ht="105">
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="15" t="s">
-        <v>930</v>
-      </c>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" ht="105">
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="8">
         <v>43</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="15" t="s">
-        <v>931</v>
-      </c>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" ht="60">
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="8">
         <v>44</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="15" t="s">
-        <v>932</v>
-      </c>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -41803,85 +41826,58 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" ht="45">
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="8">
         <v>47</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="15" t="s">
-        <v>933</v>
-      </c>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" ht="45">
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="15" t="s">
-        <v>934</v>
-      </c>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" ht="45">
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="8">
         <v>49</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="15" t="s">
-        <v>935</v>
-      </c>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" ht="45">
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C51" s="8"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="F51" s="16"/>
+      <c r="E51" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{964750D9-1355-41CC-BF63-395536B4EF97}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{EA0DFF27-E326-46AF-8B2B-3EF25521B021}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{9D5CA6F6-70EC-48DA-A9A2-20F5C1C61177}">
-      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
-    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Monitoring &amp; Controlling'!A1" display="Domain" xr:uid="{1D5628CB-6568-4746-98B0-34DC03290190}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -42216,6 +42212,1271 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB690D-227C-45AA-9C93-A22E8FEE0210}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" ht="75">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" ht="60">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="45">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="105">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" ht="45">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" ht="60">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{D6E03527-91B7-4E85-9998-19601914B008}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{7AFBB83B-0375-4682-9754-8AED4B943E59}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{6F43ACDE-95A2-4974-8C5D-AE80E15D1CF0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC84D3F-832A-445E-B66B-013E6A0F573C}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="60">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:8" ht="60">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="75">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="H11" s="57"/>
+    </row>
+    <row r="12" spans="1:8" ht="45">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="60">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" ht="45">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="60">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" ht="45">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="45">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="60">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="60">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" ht="30">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" ht="60">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" ht="45">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6" ht="75">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" ht="105">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" ht="105">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6" ht="60">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6" ht="45">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" ht="45">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" ht="45">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" ht="45">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="F51" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{964750D9-1355-41CC-BF63-395536B4EF97}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{9D5CA6F6-70EC-48DA-A9A2-20F5C1C61177}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Monitoring &amp; Controlling'!A1" display="Domain" xr:uid="{1D5628CB-6568-4746-98B0-34DC03290190}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AD6CE4-A652-4BA6-AF5B-7B55F9607709}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -42870,7 +44131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C855FF4-BDF1-4910-B0A9-D7158B045C46}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -43427,7 +44688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7271A84-E4BF-4C3C-A529-C79AE0E90AA3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -44120,7 +45381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -44800,7 +46061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
@@ -45134,7 +46395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34A5403-C026-4AEF-975E-5986F7A3547D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -45279,7 +46540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2406BFC1-FDEC-47D4-ABA3-CB9662BD9EDB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -45428,7 +46689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC095154-264D-4CD0-92FD-11A8104E004E}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -45562,305 +46823,6 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{C07DB11A-35E3-413F-87D0-27FE4A6F1823}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696DCF4-14CB-44B7-90D8-B8204394C5DB}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{56231C2C-0780-4AB3-9912-4A6766B69C4F}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="60">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="60">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{DAABEB65-4F8D-4730-83A8-534833752215}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
   </dataValidations>
@@ -46411,6 +47373,305 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696DCF4-14CB-44B7-90D8-B8204394C5DB}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{56231C2C-0780-4AB3-9912-4A6766B69C4F}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="60">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="60">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{DAABEB65-4F8D-4730-83A8-534833752215}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
@@ -46751,7 +48012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC4E90-A86A-42A7-A5A8-760D17A592B6}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -47106,7 +48367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5096C7F6-304A-4696-AB04-B782ECAE35C0}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -47458,7 +48719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E7F72C-8763-4FD0-9393-7A7E1BDC492D}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -47802,7 +49063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29A3CE1-998F-4ACC-B0C1-F793A7B2A89D}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -48152,7 +49413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G28"/>
@@ -48548,7 +49809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E11"/>
@@ -48690,7 +49951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A66E3-F985-49FA-A590-C5037DD6FB07}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -48980,7 +50241,636 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB276F1D-E283-4EC7-864D-9C4AF9A2426A}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="75">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="75">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+      <c r="F14" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="105">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="135">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="45">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" ht="30">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="90">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="120">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="150">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="150">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="75">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="120">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="120">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" ht="45">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" ht="45">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="75">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="75">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="15" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{758D2DA3-EFFF-4E3E-991C-F3D81FA29632}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{8464BF0E-3C03-4434-90E4-422BF2EA21BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
@@ -49335,7 +51225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -50376,636 +52266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB276F1D-E283-4EC7-864D-9C4AF9A2426A}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
-    <col min="6" max="6" width="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="15" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="75">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="60">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="75">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="G10" s="57"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="15"/>
-      <c r="F14" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
-      <c r="F15" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="105">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" ht="135">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" ht="45">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" ht="90">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="120">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="60">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="15" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="150">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" ht="150">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>1394</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="15" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="75">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="15" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="120">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="120">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" ht="45">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:5" ht="45">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" ht="75">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="75">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{758D2DA3-EFFF-4E3E-991C-F3D81FA29632}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{8464BF0E-3C03-4434-90E4-422BF2EA21BD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -52042,7 +53303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -52744,7 +54005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C21AC00-F23C-4DDA-9EE8-A43E265F9EB8}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -53392,7 +54653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B485323A-E48D-48D5-A059-00902955E19C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -54071,7 +55332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574CC2A3-93D7-4AB9-83CF-AF68AB756A5A}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -54459,7 +55720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
@@ -55158,7 +56419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -55336,7 +56597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
@@ -55568,6 +56829,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -55575,304 +56842,8 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="127"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="125" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="127"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="125" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="127"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="127"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="127"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="127"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="127"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="127"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="127"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="127"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="127"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="127"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -56440,6 +57411,296 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="127"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="127"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="127"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="127"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="127"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="127"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="127"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="127"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="127"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="127"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="127"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="127"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
@@ -56599,7 +57860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -56886,7 +58147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
@@ -56901,7 +58162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1"/>
@@ -56916,7 +58177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1"/>
@@ -56929,12 +58190,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F383373-F0A3-479D-A7AB-FEC4B3E1DC8F}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58161,25 +59422,25 @@
       </c>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" ht="45">
       <c r="A143" s="8">
         <v>142</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="65" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="45">
       <c r="A144" s="8">
         <v>143</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="65" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -58237,14 +59498,14 @@
       </c>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" ht="45">
       <c r="A154" s="8">
         <v>153</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="65" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -58600,7 +59861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>
@@ -58616,6 +59877,579 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC835C67-F29F-4126-84C6-3DD864C5EC64}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="60">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="60">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" ht="105">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="45">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" ht="30">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" ht="30">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="75">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" ht="30">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E51" s="15"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{94A7ECE8-2802-494F-A82E-3A5D192C59A8}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{386C111A-F11E-49A8-8819-33ED00080B5B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B825462-08D1-4D37-A381-4C2E763EC221}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -59199,7 +61033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA36D54-3A81-45C1-8A8F-266F80AC6917}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -59771,567 +61605,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2922F2A-A9C7-4C0C-9376-F4432697F8ED}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
-    <col min="6" max="6" width="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="G10" s="57"/>
-    </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" ht="45">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" ht="45">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:5" ht="30">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" ht="30">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" ht="30">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15"/>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{634F6A67-C34D-41A3-9514-3EAC9DC51B32}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{5D313308-5D84-465B-BD46-31AFA3060E29}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>